--- a/Data/Textbausteine_LENA_Mai2022.xlsx
+++ b/Data/Textbausteine_LENA_Mai2022.xlsx
@@ -13,7 +13,7 @@
     <sheet state="visible" name="ZH_Wahlrecht16" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="ZH_Elternzeit" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="ZH_Klimaschutz" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="ZH_Bürgerrecht" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="ZH_Buergerrecht" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="Variablen" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="369">
   <si>
     <t>Text_ID</t>
   </si>
@@ -210,7 +210,7 @@
     <t>#Gemeinde_d hat die Änderung des Filmgesetzes von allen Schweizer Gemeinden am deutlichsten angenommen und zwar mit #JaStimmenInProzent Prozent der Stimmen.</t>
   </si>
   <si>
-    <t>C'est à #Gemeinde_f que l'on trouve le fort soutien à la nouvelle loi sur le cinéma: la commune a voté à #JaStimmenInProzent pour cent en faveur de cette modification.</t>
+    <t>C'est à #Gemeinde_f que l'on trouve le plus fort soutien à la nouvelle loi sur le cinéma: la commune a voté à #JaStimmenInProzent pour cent en faveur de cette modification.</t>
   </si>
   <si>
     <t>Gemeinde mit dem höchsten Ja-Anteil (schweizweit)</t>
@@ -390,13 +390,10 @@
     <t>Les habitants de #Gemeinde_f soutiennent à #JaStimmenInProzent pour cent la modification de la loi sur la transplantation d'organes.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmendie Änderung des Transplantationsgesetzes angenommen.</t>
+    <t>#Gemeinde_d hat mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen die Änderung des Transplantationsgesetzes angenommen.</t>
   </si>
   <si>
     <t>La loi modifiée sur la transplantation d'organes est validée à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
-  </si>
-  <si>
-    <t>#Gemeinde_d hat mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen die Änderung des Transplantationsgesetzes angenommen.</t>
   </si>
   <si>
     <t>Les électeurs de la petite commune de #Gemeinde_f ont accordé leur confiance à la loi sur la transplantation d'organes. Ils ont dit oui à cette modification par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
@@ -699,13 +696,13 @@
     <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui une modification de la politique foncière souhaitée par le Conseil d'Etat.</t>
   </si>
   <si>
-    <t>C'est oui à #JaStimmenInProzent pour cent à la modification de la politique foncière souhaitée par le Conseil d'Etat à #Gemeinde_f.</t>
+    <t>C'est oui à #JaStimmenInProzent pour cent à #Gemeinde_f à la modification de la politique foncière souhaitée par le Conseil d'Etat.</t>
   </si>
   <si>
     <t>Une modification de la politique foncière souhaitée par le Conseil d'Etat passe la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #JaStimmenAbsolut à dire oui à ce projet.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix une modification de la politique foncière souhaitée par le Conseil d'Etat.</t>
+    <t>Les habitants de #Gemeinde_f ont refusé avec #NeinStimmenInProzent pour cent des voix une modification de la politique foncière voulue par le Conseil d'Etat.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f refusent avec #NeinStimmenInProzent pour cent de non une modification de la politique foncière souhaitée par le Conseil d'Etat.</t>
@@ -768,7 +765,7 @@
     <t>La réforme du cycle d'orientation genevois ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune sont #NeinStimmenAbsolut à dire non à ce projet.</t>
   </si>
   <si>
-    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la réforme du cycle d'orientation genevois et #NeinStimmenAbsolut à le refuser.</t>
+    <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à accepter la réforme du cycle d'orientation genevois et #NeinStimmenAbsolut à la refuser.</t>
   </si>
   <si>
     <t>Résultat on ne peut plus clair à #Gemeinde_f. Les #JaStimmenAbsolut votants de cette commune qui se sont déplacés dimanche ont tous accepté la réforme du cycle d'orientation genevois.</t>
@@ -783,10 +780,10 @@
     <t>du cycle d'orientation genevois</t>
   </si>
   <si>
-    <t>#Gemeinde_f a accepté par #JaStimmenInProzent pour cent l'initiative en faveur d'une baisse de la taxe sur les plaques des véhicules.</t>
+    <t>#Gemeinde_f a accepté par #JaStimmenInProzent pour cent l'initiative en faveur d'une baisse de la taxe sur les plaques d'immatriculation des véhicules.</t>
   </si>
   <si>
-    <t>La commune de #Gemeinde_f dit oui à #JaStimmenInProzent pour cent à l'initiative en faveur d'une baisse de la taxe sur les plaques des véhicules.</t>
+    <t>La commune de #Gemeinde_f dit oui à #JaStimmenInProzent pour cent à l'initiative en faveur d'une baisse de la taxe sur les plaques d'immatriculation des véhicules.</t>
   </si>
   <si>
     <t>Les citoyens de #Gemeinde_f ont approuvé à #JaStimmenInProzent pour cent l'initiative en faveur d'une baisse de la taxe sur les plaques des véhicules.</t>
@@ -840,46 +837,46 @@
     <t>Intro_HauptvorlageJa_GegenvorschlagJa_StichentscheidHauptvorlage</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenHauptvorlageInProzent pour cent des voix l’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel et avec #JaStimmenGegenvorschlagInProzent pour cent des voix le contre-projet direct du gouvernement. Leur préférence va à l'initiative.</t>
+    <t>Les habitants de #Gemeinde_f ont approuvé avec #JaStimmenHauptvorlageInProzent pour cent des voix l’initiative du Centre en faveur de la création d’une Cour des comptes à Neuchâtel et avec #JaStimmenGegenvorschlagInProzent pour cent des voix le contre-projet du gouvernement. Leur préférence va à l'initiative.</t>
   </si>
   <si>
     <t>Initative und Contre-projet angenommen, deutlicheres Ja für Initiative</t>
   </si>
   <si>
-    <t>L’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel et le contre-projet direct du gouvernement ont été approuvés à #Gemeinde_f avec respectivement #JaStimmenHauptvorlageInProzent pour cent de voix et #JaStimmenGegenvorschlagInProzent pour cent de voix. La commune donne sa préférence à l'initiative.</t>
+    <t>L’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel et le contre-projet du gouvernement ont été approuvés à #Gemeinde_f avec respectivement #JaStimmenHauptvorlageInProzent pour cent de voix et #JaStimmenGegenvorschlagInProzent pour cent de voix. La commune donne sa préférence à l'initiative.</t>
   </si>
   <si>
-    <t>C'est oui à #Gemeinde_f à l’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel et au contre-projet direct du gouvernement avec respectivement #JaStimmenHauptvorlageInProzent pour cent de voix et #JaStimmenGegenvorschlagInProzent pour cent de voix. La commune privilégie l'initiative.</t>
+    <t>C'est oui à #Gemeinde_f à l’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel et au contre-projet du gouvernement avec respectivement #JaStimmenHauptvorlageInProzent pour cent de voix et #JaStimmenGegenvorschlagInProzent pour cent de voix. La commune privilégie l'initiative.</t>
   </si>
   <si>
     <t>Intro_HauptvorlageJa_GegenvorschlagJa_StichentscheidGegenvorschlag</t>
   </si>
   <si>
-    <t>L’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel et le contre-projet direct du gouvernement ont été approuvés à #Gemeinde_f avec respectivement #JaStimmenHauptvorlageInProzent pour cent de voix et #JaStimmenGegenvorschlagInProzent pour cent de voix. Les habitants de la commune privilégient le contre-projet.</t>
+    <t>L’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel et le contre-projet du gouvernement ont été approuvés à #Gemeinde_f avec respectivement #JaStimmenHauptvorlageInProzent pour cent de voix et #JaStimmenGegenvorschlagInProzent pour cent de voix. Les habitants de la commune privilégient le contre-projet.</t>
   </si>
   <si>
     <t>Initative und Contre-projet angenommen, deutlicheres Ja für Contre-project</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f ont accepté #JaStimmenHauptvorlageInProzent pour cent des voix l’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel et avec #JaStimmenGegenvorschlagInProzent pour cent des voix le contre-projet direct du gouvernement. Ils ont toutefois donné leur préférence au contre-projet gouvernemental.</t>
+    <t>Les habitants de #Gemeinde_f ont accepté avec #JaStimmenHauptvorlageInProzent pour cent des voix l’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel et avec #JaStimmenGegenvorschlagInProzent pour cent des voix le contre-projet du gouvernement. Ils ont toutefois donné leur préférence au contre-projet gouvernemental.</t>
   </si>
   <si>
-    <t>C'est oui à #Gemeinde_f à l’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel et au contre-projet direct du gouvernement avec respectivement #JaStimmenHauptvorlageInProzent pour cent de voix et #JaStimmenGegenvorschlagInProzent pour cent de voix. Le contre-projet reçoit la préférence des habitants de la commune.</t>
+    <t>C'est oui à #Gemeinde_f à l’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel et au contre-projet du gouvernement avec respectivement #JaStimmenHauptvorlageInProzent pour cent de voix et #JaStimmenGegenvorschlagInProzent pour cent de voix. Le contre-projet reçoit la préférence des habitants de la commune.</t>
   </si>
   <si>
     <t>Intro_HauptvorlageJa_GegenvorschlagNein</t>
   </si>
   <si>
-    <t>C'est oui à #Gemeinde_f à l'initiative du Centre pour la création d’une Cour des comptes à Neuchâtel avec #JaStimmenHauptvorlageInProzent pour cent de voix. Les citoyens ont par contre rejeté le contre-projet avec #JaStimmenGegenvorschlagInProzent pour cent de oui.</t>
+    <t>C'est oui à #Gemeinde_f à l'initiative du Centre pour la création d’une Cour des comptes à Neuchâtel avec #JaStimmenHauptvorlageInProzent pour cent de voix. Les citoyens ont par contre rejeté le contre-projet avec #NeinStimmenGegenvorschlagInProzent pour cent de non.</t>
   </si>
   <si>
     <t>Initative angenommen, Contre-projet abgelehnt</t>
   </si>
   <si>
-    <t>L'initiative du Centre pour la création d’une Cour des comptes passe la rampe avec #JaStimmenHauptvorlageInProzent pour cent de voix à #Gemeinde_f. Les citoyens refusent par contre le contre-projet avec #JaStimmenGegenvorschlagInProzent pour cent de oui.</t>
+    <t>L'initiative du Centre pour la création d’une Cour des comptes passe la rampe avec #JaStimmenHauptvorlageInProzent pour cent de voix à #Gemeinde_f. Les citoyens refusent par contre le contre-projet avec #NeinStimmenGegenvorschlagInProzent pour cent de non.</t>
   </si>
   <si>
-    <t>L'initiative du Centre pour la création d’une Cour des comptes est acceptée avec #JaStimmenHauptvorlageInProzent pour cent de voix à #Gemeinde_f. Le contre-projet gouvernemental essuie par contre un revers, avec #JaStimmenGegenvorschlagInProzent pour cent de oui.</t>
+    <t>L'initiative du Centre pour la création d’une Cour des comptes est acceptée avec #JaStimmenHauptvorlageInProzent pour cent de voix à #Gemeinde_f. Le contre-projet gouvernemental essuie par contre un revers, avec #NeinStimmenGegenvorschlagInProzent pour cent de non.</t>
   </si>
   <si>
     <t>Intro_HauptvorlageNein_GegenvorschlagJa</t>
@@ -891,7 +888,7 @@
     <t>Initative abgelehnt, Contre-projet angenommen</t>
   </si>
   <si>
-    <t>L'initiative du Centre pour la création d’une Cour des comptes échoue avec #JaStimmenHauptvorlageInProzent pour cent de oui à #Gemeinde_f. Les citoyens acceptent par contre le contre-projet avec #JaStimmenGegenvorschlagInProzent pour cent de oui.</t>
+    <t>L'initiative du Centre pour la création d’une Cour des comptes échoue avec #NeinStimmenHauptvorlageInProzent pour cent de non à #Gemeinde_f. Les citoyens acceptent par contre le contre-projet avec #JaStimmenGegenvorschlagInProzent pour cent de oui.</t>
   </si>
   <si>
     <t>L'initiative du Centre pour la création d’une Cour des comptes ne reçoit que #JaStimmenHauptvorlageInProzent pour cent de oui à #Gemeinde_f. Les citoyens ont préféré le contre-projet gouvernemental, qui obtient #JaStimmenGegenvorschlagInProzent pour cent de oui.</t>
@@ -900,16 +897,16 @@
     <t>Intro_HauptvorlageNein_GegenvorschlagNein</t>
   </si>
   <si>
-    <t>Ni l’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel, ni le contre-projet indirect n'ont été approuvés à #Gemeinde_f. Les initiants n'obtiennent que #JaStimmenHauptvorlageInProzent pour cent de oui et le solution voulue par le Conseil d'Etat #JaStimmenGegenvorschlagInProzent pour cent de oui.</t>
+    <t>Ni l’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel, ni le contre-projet n'ont été approuvés à #Gemeinde_f. Les initiants n'obtiennent que #JaStimmenHauptvorlageInProzent pour cent de oui et le solution voulue par le Conseil d'Etat #JaStimmenGegenvorschlagInProzent pour cent de oui.</t>
   </si>
   <si>
     <t>Initative und Contre-projet abgelehnt</t>
   </si>
   <si>
-    <t>Double non à #Gemeinde_f. Les citoyens ont rejeté l’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel (#JaStimmenHauptvorlageInProzent pour cent de oui) et le contre-projet indirect du Conseil d'Etat (#JaStimmenGegenvorschlagInProzent pour cent de oui).</t>
+    <t>Double non à #Gemeinde_f. Les citoyens ont rejeté l’initiative du Centre pour la création d’une Cour des comptes à Neuchâtel (#NeinStimmenHauptvorlageInProzent pour cent de non) et le contre-projet du Conseil d'Etat (#NeinStimmenGegenvorschlagInProzent pour cent de non).</t>
   </si>
   <si>
-    <t>Créer une Cour des comptes à Neuchâtel est refusé par les citoyens de #Gemeinde_f. Les initiants n'obtiennent que #JaStimmenHauptvorlageInProzent pour cent de oui et le solution voulue par le Conseil d'Etat #JaStimmenGegenvorschlagInProzent pour cent de oui.</t>
+    <t>La création d'une Cour des comptes à Neuchâtel est refusée par les citoyens de #Gemeinde_f. Les initiants n'obtiennent que #JaStimmenHauptvorlageInProzent pour cent de oui et le solution voulue par le Conseil d'Etat #JaStimmenGegenvorschlagInProzent pour cent de oui.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat das Stimm- und Wahlsrechtsalter 16 mit #JaStimmenInProzent Prozent angenommen.</t>
@@ -1937,7 +1934,7 @@
       <c r="B23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="6"/>
@@ -6018,7 +6015,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -6030,7 +6027,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -6039,7 +6036,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -6048,7 +6045,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -6060,7 +6057,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -6072,7 +6069,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -6081,7 +6078,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -6090,7 +6087,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -6102,7 +6099,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -6114,7 +6111,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -6126,7 +6123,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -6138,7 +6135,7 @@
         <v>84</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="7" t="s">
@@ -6150,7 +6147,7 @@
         <v>88</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="7" t="s">
@@ -6162,7 +6159,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C15" s="22"/>
       <c r="E15" s="7" t="s">
@@ -6174,7 +6171,7 @@
         <v>96</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C16" s="22"/>
       <c r="E16" s="7" t="s">
@@ -6186,7 +6183,7 @@
         <v>100</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17" s="22"/>
       <c r="E17" s="7" t="s">
@@ -6198,7 +6195,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18" s="22"/>
       <c r="E18" s="7" t="s">
@@ -12198,47 +12195,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>339</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>341</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>343</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>345</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>347</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B6" s="34">
         <v>60.4</v>
@@ -12246,7 +12243,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B7" s="34">
         <v>39.6</v>
@@ -12254,23 +12251,23 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>351</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>353</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10" s="34">
         <v>60.4</v>
@@ -12278,7 +12275,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B11" s="34">
         <v>39.6</v>
@@ -12286,26 +12283,26 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>359</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="15">
@@ -12313,13 +12310,13 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B16" s="35"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B17" s="34">
         <v>60.4</v>
@@ -12327,7 +12324,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B18" s="34">
         <v>39.6</v>
@@ -12335,23 +12332,23 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B21" s="34">
         <v>60.4</v>
@@ -12359,7 +12356,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="34">
         <v>39.6</v>
@@ -12367,18 +12364,18 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25">
@@ -15449,10 +15446,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -15461,10 +15458,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
@@ -15476,10 +15473,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -15488,10 +15485,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -15500,10 +15497,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -15512,10 +15509,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -15524,10 +15521,10 @@
         <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="D16" s="6"/>
       <c r="F16" s="5"/>
@@ -15537,10 +15534,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -15549,10 +15546,10 @@
         <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
@@ -15564,10 +15561,10 @@
         <v>43</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -15576,10 +15573,10 @@
         <v>48</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="s">
@@ -15591,10 +15588,10 @@
         <v>52</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
@@ -15606,10 +15603,10 @@
         <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
@@ -15621,10 +15618,10 @@
         <v>60</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7" t="s">
@@ -15636,10 +15633,10 @@
         <v>64</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7" t="s">
@@ -15651,10 +15648,10 @@
         <v>68</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
@@ -15667,10 +15664,10 @@
         <v>72</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7" t="s">
@@ -15683,10 +15680,10 @@
         <v>76</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7" t="s">
@@ -15699,10 +15696,10 @@
         <v>80</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
@@ -19701,13 +19698,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>8</v>
@@ -19718,10 +19715,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -19729,10 +19726,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5">
@@ -19740,10 +19737,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -19752,10 +19749,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -19764,10 +19761,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -19776,10 +19773,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -19788,10 +19785,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="s">
@@ -19803,10 +19800,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -19815,10 +19812,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
@@ -19830,10 +19827,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -19842,10 +19839,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -19854,10 +19851,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -19866,10 +19863,10 @@
         <v>27</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -19878,10 +19875,10 @@
         <v>27</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="D16" s="6"/>
       <c r="F16" s="5"/>
@@ -19891,10 +19888,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>194</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -19903,10 +19900,10 @@
         <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="s">
@@ -19918,10 +19915,10 @@
         <v>43</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -19930,10 +19927,10 @@
         <v>48</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="s">
@@ -19945,10 +19942,10 @@
         <v>52</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
@@ -19960,10 +19957,10 @@
         <v>56</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
@@ -19975,10 +19972,10 @@
         <v>60</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7" t="s">
@@ -19990,10 +19987,10 @@
         <v>64</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7" t="s">
@@ -20005,10 +20002,10 @@
         <v>68</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
@@ -20021,10 +20018,10 @@
         <v>72</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7" t="s">
@@ -20037,10 +20034,10 @@
         <v>76</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7" t="s">
@@ -20053,10 +20050,10 @@
         <v>80</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7" t="s">
@@ -20072,7 +20069,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7" t="s">
@@ -20088,7 +20085,7 @@
         <v>89</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7" t="s">
@@ -20104,7 +20101,7 @@
         <v>93</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7" t="s">
@@ -20120,7 +20117,7 @@
         <v>97</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="7" t="s">
@@ -20136,7 +20133,7 @@
         <v>101</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="7" t="s">
@@ -20152,7 +20149,7 @@
         <v>105</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="7" t="s">
@@ -24059,7 +24056,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>8</v>
@@ -24071,7 +24068,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
@@ -24080,7 +24077,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5">
@@ -24089,7 +24086,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>24</v>
@@ -24101,7 +24098,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -24113,7 +24110,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -24122,7 +24119,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
@@ -24131,7 +24128,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>24</v>
@@ -24143,7 +24140,7 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -24155,7 +24152,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -24167,7 +24164,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>59</v>
@@ -24179,7 +24176,7 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>87</v>
@@ -24191,7 +24188,7 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>91</v>
@@ -24203,7 +24200,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>95</v>
@@ -24215,7 +24212,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>99</v>
@@ -24227,7 +24224,7 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>103</v>
@@ -24239,7 +24236,7 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>107</v>
@@ -27178,7 +27175,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>8</v>
@@ -27190,7 +27187,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -27199,7 +27196,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5">
@@ -27208,7 +27205,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>24</v>
@@ -27220,7 +27217,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -27232,7 +27229,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8">
@@ -27241,7 +27238,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9">
@@ -27250,7 +27247,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>24</v>
@@ -27262,7 +27259,7 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -27274,7 +27271,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -27286,7 +27283,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>59</v>
@@ -27298,7 +27295,7 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>87</v>
@@ -27310,7 +27307,7 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>91</v>
@@ -27322,7 +27319,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>95</v>
@@ -27334,7 +27331,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>99</v>
@@ -27346,7 +27343,7 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>103</v>
@@ -27358,7 +27355,7 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>107</v>
@@ -27379,7 +27376,7 @@
     <row r="23">
       <c r="B23" s="17"/>
       <c r="C23" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -30300,7 +30297,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>8</v>
@@ -30312,7 +30309,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
@@ -30321,7 +30318,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
@@ -30330,7 +30327,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>24</v>
@@ -30342,7 +30339,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -30354,7 +30351,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
@@ -30363,7 +30360,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9">
@@ -30372,7 +30369,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>24</v>
@@ -30384,7 +30381,7 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -30396,7 +30393,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>55</v>
@@ -30408,7 +30405,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>59</v>
@@ -30420,7 +30417,7 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>87</v>
@@ -30432,7 +30429,7 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>91</v>
@@ -30444,7 +30441,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>95</v>
@@ -30456,7 +30453,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>99</v>
@@ -30468,7 +30465,7 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>103</v>
@@ -30480,7 +30477,7 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>107</v>
@@ -30495,7 +30492,7 @@
     <row r="21">
       <c r="B21" s="17"/>
       <c r="C21" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -33440,15 +33437,15 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -33475,11 +33472,11 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -33508,11 +33505,11 @@
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -33541,15 +33538,15 @@
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -33576,11 +33573,11 @@
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="22"/>
@@ -33609,11 +33606,11 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -33642,15 +33639,15 @@
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -33677,11 +33674,11 @@
     </row>
     <row r="9">
       <c r="A9" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="22"/>
@@ -33710,11 +33707,11 @@
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="22"/>
@@ -33743,15 +33740,15 @@
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -33778,11 +33775,11 @@
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="22"/>
@@ -33811,11 +33808,11 @@
     </row>
     <row r="13">
       <c r="A13" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="22"/>
@@ -33844,15 +33841,15 @@
     </row>
     <row r="14">
       <c r="A14" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -33879,11 +33876,11 @@
     </row>
     <row r="15">
       <c r="A15" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="22"/>
@@ -33912,11 +33909,11 @@
     </row>
     <row r="16">
       <c r="A16" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="22"/>
@@ -61853,7 +61850,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -61865,7 +61862,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -61874,7 +61871,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -61883,7 +61880,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -61895,7 +61892,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -61907,7 +61904,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -61916,7 +61913,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -61925,7 +61922,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -61937,7 +61934,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -61949,7 +61946,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -61961,7 +61958,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -61973,7 +61970,7 @@
         <v>84</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="7" t="s">
@@ -61985,7 +61982,7 @@
         <v>88</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="7" t="s">
@@ -61997,7 +61994,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15" s="22"/>
       <c r="E15" s="7" t="s">
@@ -62009,7 +62006,7 @@
         <v>96</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C16" s="22"/>
       <c r="E16" s="7" t="s">
@@ -62021,7 +62018,7 @@
         <v>100</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17" s="22"/>
       <c r="E17" s="7" t="s">
@@ -62033,7 +62030,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18" s="22"/>
       <c r="E18" s="7" t="s">
@@ -64972,7 +64969,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -64984,7 +64981,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -64993,7 +64990,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -65002,7 +64999,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -65014,7 +65011,7 @@
         <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -65026,7 +65023,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -65035,7 +65032,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -65044,7 +65041,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -65056,7 +65053,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -65068,7 +65065,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -65080,7 +65077,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -65092,7 +65089,7 @@
         <v>84</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="7" t="s">
@@ -65104,7 +65101,7 @@
         <v>88</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="7" t="s">
@@ -65116,7 +65113,7 @@
         <v>92</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C15" s="22"/>
       <c r="E15" s="7" t="s">
@@ -65128,7 +65125,7 @@
         <v>96</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C16" s="22"/>
       <c r="E16" s="7" t="s">
@@ -65140,7 +65137,7 @@
         <v>100</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C17" s="22"/>
       <c r="E17" s="7" t="s">
@@ -65152,7 +65149,7 @@
         <v>104</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C18" s="22"/>
       <c r="E18" s="7" t="s">

--- a/Data/Textbausteine_LENA_Mai2022.xlsx
+++ b/Data/Textbausteine_LENA_Mai2022.xlsx
@@ -13,8 +13,7 @@
     <sheet state="visible" name="ZH_Wahlrecht16" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="ZH_Elternzeit" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="ZH_Klimaschutz" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="ZH_Buergerrecht" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Variablen" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="Variablen" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="456">
   <si>
     <t>Text_ID</t>
   </si>
@@ -48,6 +47,9 @@
     <t>La commune de #Gemeinde_f veut une nouvelle loi sur le cinéma. Elle a accepté la "Lex Netflix" par #JaStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
+    <t>Nel comune di #Gemeinde_i la legge sul cinema è stata accettata con il #JaStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Mehr Ja- als Nein-Stimmen</t>
   </si>
   <si>
@@ -57,10 +59,16 @@
     <t>Pour les habitants de #Gemeinde_f, une nouvelle loi sur le cinéma est nécessaire. Ils ont voté oui à #JaStimmenInProzent pour cent en faveur de la "Lex Netflix".</t>
   </si>
   <si>
+    <t>Sì alla legge sul cinema nel comune di #Gemeinde_i: i cittadini hanno approvato il testo con il #JaStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben für die Änderung des Filmgesetzes gestimmt.</t>
   </si>
   <si>
     <t>Les citoyens de #Gemeinde_f sont favorables à la loi modifiée sur le cinéma. Ils ont voté à #JaStimmenInProzent pour cent en faveur du projet du Conseil fédéral et du Parlement.</t>
+  </si>
+  <si>
+    <t>Nel comune di #Gemeinde_i la legge sul cinema è stata approvata con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die "Lex Netflix" ist in #Gemeinde_d mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein angenommen worden. Die entspricht #JaStimmenInProzent Prozent der Stimmen.</t>
@@ -69,10 +77,16 @@
     <t>A #Gemeinde_f, les habitants sont favorables à la loi sur le cinéma. Ils ont dit oui à #JaStimmenInProzent pour cent à la "Lex Netflix".</t>
   </si>
   <si>
+    <t>I cittadini di #Gemeinde_i si sono espressi a favore della legge sul cinema. Il testo è stato approvato con il #JaStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben Ja gesagt zur Änderung des Filmgesetzes.</t>
   </si>
   <si>
     <t>Les citoyens de #Gemeinde_f valident avec #JaStimmenInProzent pour cent de oui la loi sur le cinéma.</t>
+  </si>
+  <si>
+    <t>Con il #JaStimmenInProzent percento di "sì", i cittadini del comune di #Gemeinde_i hanno accolto la legge sul cinema.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat der Änderung des Filmgesetzes zugestimmt und zwar mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein. Die entspricht einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent.</t>
@@ -81,10 +95,16 @@
     <t>A #Gemeinde_f, les habitants ont soutenu avec #JaStimmenInProzent pour cent des voix la nouvelle loi sur le cinéma.</t>
   </si>
   <si>
+    <t>Da #Gemeinde_i è arrivato un "sì" alle urne per la legge sul cinema. I cittadini hanno accolto il testo con il #JaStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Ja zur Änderung des Filmgesetzes: #Gemeinde_d hat die Vorlage mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
   </si>
   <si>
     <t>Les citoyens de #Gemeinde_f disent oui à la modification de la loi sur le cinéma avec #JaStimmenInProzent pour cent des voix.</t>
+  </si>
+  <si>
+    <t>A #Gemeinde_i i cittadini hanno accolto, con il #JaStimmenInProzent percento dei voti, la legge sul cinema.</t>
   </si>
   <si>
     <t>Intro_kleineGemeinde_Ja</t>
@@ -96,6 +116,9 @@
     <t>#Gemeinde_f a voté en faveur de la modification de la loi sur le cinéma: #JaStimmenAbsolut habitants de cette petite commune ont dit oui, #NeinStimmenAbsolut non.</t>
   </si>
   <si>
+    <t>Nel comune di #Gemeinde_i la legge sul cinema è stata accettata con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut.</t>
+  </si>
+  <si>
     <t>Gemeinden mit weniger als 100 Stimmabgaben</t>
   </si>
   <si>
@@ -103,6 +126,9 @@
   </si>
   <si>
     <t>#Gemeinde_f accepte la nouvelle loi sur le cinéma. Dans cette commune, #JaStimmenAbsolut ont voté en faveur de la modification de la loi, alors que #NeinStimmenAbsolut l'ont rejetée.</t>
+  </si>
+  <si>
+    <t>Con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut, i cittadini di #Gemeinde_i hanno approvato la legge sul cinema.</t>
   </si>
   <si>
     <t>Intro_Nein</t>
@@ -114,6 +140,9 @@
     <t>Les citoyens de #Gemeinde_f refusent la nouvelle loi sur le cinéma. Ils ont rejeté la modification de la loi par #NeinStimmenInProzent pour cent des voix.</t>
   </si>
   <si>
+    <t>Nel comune di #Gemeinde_i la legge sul cinema è stata bocciata con il #NeinStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Mehr Nein- als Ja-Stimmen</t>
   </si>
   <si>
@@ -123,10 +152,16 @@
     <t>#NeinStimmenInProzent pour cent des habitants de #Gemeinde_f ont refusé la modification de la loi sur le cinéma.</t>
   </si>
   <si>
+    <t>No alla legge sul cinema nel comune di #Gemeinde_i: i cittadini hanno bocciato il testo con il #NeinStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>#NeinStimmenInProzent Prozent Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben Nein gesagt zur "Lex Netflix".</t>
   </si>
   <si>
     <t>#Gemeinde_f s'oppose à la modification de la loi sur le cinéma. La commune a dit non à #NeinStimmenInProzent pour cent au projet soutenu par le Conseil fédéral et le Parlement.</t>
+  </si>
+  <si>
+    <t>I cittadini di #Gemeinde_i si sono espressi contro la legge sul cinema. Il testo è stato respinto con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmbürgerinnen und Stimmbürger von #Gemeinde_d die Änderung des Filmgesetzes abgelehnt. Das entspricht #NeinStimmenInProzent Prozent.</t>
@@ -135,10 +170,16 @@
     <t>A #Gemeinde_f, c'est non à #NeinStimmenInProzent pour cent à la nouvelle loi sur le cinéma.</t>
   </si>
   <si>
+    <t>Con il #NeinStimmenInProzent percento di "no", i cittadini del comune di #Gemeinde_i hanno respinto la legge sul cinema.</t>
+  </si>
+  <si>
     <t>Die Änderung des Filmgesetzes ist in #Gemeinde_d mit #NeinStimmenInProzent Prozent abgelehnt worden.</t>
   </si>
   <si>
     <t>Non à la modification de la loi sur le cinéma à #Gemeinde_f: la commune a rejeté avec #NeinStimmenInProzent pour cent des voix la "Lex Netflix" soumise aux urnes ce dimanche.</t>
+  </si>
+  <si>
+    <t>Da #Gemeinde_i è arrivato un "no" alle urne per la legge sul cinema. I cittadini hanno bocciato il testo con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Nein zur Änderung des Filmgesetzes in #Gemeinde_d. Die Gemeinde hat die Vorlage mit #NeinStimmenInProzent Prozent Nein-Stimmen verworfen.</t>
@@ -147,10 +188,16 @@
     <t>#Gemeinde_f a refusé par #NeinStimmenInProzent pour cent des voix la modification de la loi sur le cinéma.</t>
   </si>
   <si>
-    <t>In #Gemeinde_d hat die Änderung des Filmgesetzes keine Mehrheit gefunden: #NeinStimmenInProzent Prozent haben es abgelehnt.</t>
+    <t>Nel comune di #Gemeinde_i la legge sul cinema è stata respinta con il #NeinStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
+    <t>In #Gemeinde_d hat die "Lex Netflix" keine Mehrheit gefunden: #NeinStimmenInProzent Prozent haben es abgelehnt.</t>
   </si>
   <si>
     <t>La commune de #Gemeinde_f a rejeté par #NeinStimmenInProzent pour cent des voix la nouvelle loi sur le cinéma.</t>
+  </si>
+  <si>
+    <t>A #Gemeinde_i i cittadini hanno respinto, con il #NeinStimmenInProzent percento dei voti, la legge sul cinema.</t>
   </si>
   <si>
     <t>Intro_kleineGemeinde_Nein</t>
@@ -162,10 +209,16 @@
     <t>#NeinStimmenAbsolut habitants de #Gemeinde_f se sont opposés à la modification de loi sur le cinéma. Les partisans de la "Lex Netflix" soumise aux urnes n'étaient que #JaStimmenAbsolut.</t>
   </si>
   <si>
+    <t>Nel comune di #Gemeinde_i la legge sul cinema è stata bocciata con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut.</t>
+  </si>
+  <si>
     <t>Nein zur Änderung des Filmgesetzes in #Gemeinde_d. Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten die Vorlage verworfen.</t>
   </si>
   <si>
     <t>#Gemeinde_f ne veut pas modifier la loi sur le cinéma. Ce dimanche, #NeinStimmenAbsolut citoyens de la commune ont rejeté la "Lex Netflix", alors que #JaStimmenAbsolut ont dit oui.</t>
+  </si>
+  <si>
+    <t>Con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut, i cittadini di #Gemeinde_i hanno respinto la legge sul cinema.</t>
   </si>
   <si>
     <t>Intro_Sonderfall</t>
@@ -175,6 +228,9 @@
   </si>
   <si>
     <t>#Gemeinde_f n'a pas tranché sur la nouvelle loi sur le cinéma: #JaStimmenAbsolut ont approuvé la modification de la loi et autant ont dit non.</t>
+  </si>
+  <si>
+    <t>Pareggio perfetto a #Gemeinde_i! Sono stati #JaStimmenAbsolut a votare a favore della legge sul cinema, lo stesso identico numero dei contrari.</t>
   </si>
   <si>
     <t>Gleich viele Ja- wie Nein-Stimmen</t>
@@ -189,6 +245,9 @@
     <t>Le nouvelle loi sur le cinéma ne fait pas recette à #Gemeinde_f: les #JaStimmenAbsolut votants de la commune se sont tous prononcés en faveur de cette modification.</t>
   </si>
   <si>
+    <t>Un risultato più chiaro è difficile da trovare: a #Gemeinde_i tutti e #JaStimmenAbsolut i votanti hanno accettato la legge sul cinema.</t>
+  </si>
+  <si>
     <t>Einstimmiges Resultat Ja</t>
   </si>
   <si>
@@ -199,6 +258,9 @@
   </si>
   <si>
     <t>Pas touche à l'actuelle loi sur le cinéma à #Gemeinde_f: l'ensemble des #NeinStimmenAbsolut votants de la commune ont refusé de modifier la loi.</t>
+  </si>
+  <si>
+    <t>Una bocciatura più chiara è difficile da trovare: a #Gemeinde_i tutti e #NeinStimmenAbsolut i votanti hanno respinto la legge sul cinema.</t>
   </si>
   <si>
     <t>Einstimmiges Resultat Nein</t>
@@ -213,16 +275,22 @@
     <t>C'est à #Gemeinde_f que l'on trouve le plus fort soutien à la nouvelle loi sur le cinéma: la commune a voté à #JaStimmenInProzent pour cent en faveur de cette modification.</t>
   </si>
   <si>
+    <t>In nessun’altra parte della Svizzera la legge sul cinema è stata approvata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem höchsten Ja-Anteil (schweizweit)</t>
   </si>
   <si>
     <t>Intro_2Highest_Yes_CH</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat der Änderung des Filmgesetzes mit dem schweizweit zweithöchsten Ja-Anteil zugestimmt, nämlich mit #JaStimmenInProzent Prozent Ja.</t>
+    <t>#Gemeinde_d hat der "Lex Netflix" mit dem schweizweit zweithöchsten Ja-Anteil zugestimmt, nämlich mit #JaStimmenInProzent Prozent Ja.</t>
   </si>
   <si>
     <t xml:space="preserve">#Gemeinde_f se classe au deuxième rang des plus fortes approbations de Suisse pour la modification de la loi sur le cinéma: #JaStimmenInProzent pour cent ont dit oui à la "Lex Netflix". </t>
+  </si>
+  <si>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli alla legge sul cinema. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Gemeinde mit dem zweithöchsten Ja-Anteil</t>
@@ -237,6 +305,9 @@
     <t>#Gemeinde_f prend le troisième rang des plus forts soutiens à la nouvelle loi sur le cinéma. Ses citoyens disent oui à #JaStimmenInProzent pour cent à la modification soutenue par le gouvernement et les Chambres fédérales.</t>
   </si>
   <si>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli alla legge sul cinema. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem dritthöchsten Ja-Anteil</t>
   </si>
   <si>
@@ -249,16 +320,22 @@
     <t>A #Gemeinde_f, #NeinStimmenInProzent pour cent des habitants sont opposés à la nouvelle loi sur le cinéma. C'est le taux le plus élevé du pays.</t>
   </si>
   <si>
+    <t>In nessun’altra parte della Svizzera la legge sul cinema è stata bocciata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem höchsten Nein-Anteil (schweizweit)</t>
   </si>
   <si>
     <t>Intro_2Highest_No_CH</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat #Gemeinde_d hat die Änderung des Filmgesetzes mit dem schweizweit zweithöchsten Nein-Anteil abgelehnt, nämlich mit #NeinStimmenInProzent Nein.</t>
+    <t>#Gemeinde_d hat #Gemeinde_d hat die "Lex Netflix" mit dem schweizweit zweithöchsten Nein-Anteil abgelehnt, nämlich mit #NeinStimmenInProzent Nein.</t>
   </si>
   <si>
     <t xml:space="preserve">#Gemeinde_f se classe au deuxième rang des plus forts rejets de Suisse pour la modification de la loi sur le cinéma. Ses citoyens disent non à #NeinStimmenInProzent pour cent. </t>
+  </si>
+  <si>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori alla legge sul cinema. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Gemeinde mit dem zweithöchsten Nein-Anteil</t>
@@ -273,6 +350,9 @@
     <t xml:space="preserve">#Gemeinde_f se classe au troisième rang des communes les plus hostiles à la nouvelle loi sur le cinéma. Ses citoyens disent non à cette modification à #NeinStimmenInProzent pour cent. </t>
   </si>
   <si>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori alla legge sul cinema. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem dritthöchsten Nein-Anteil</t>
   </si>
   <si>
@@ -283,6 +363,9 @@
   </si>
   <si>
     <t>Le plus fort pourcentage de oui du canton de #Kanton_f a été enregistré à #Gemeinde_f.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_i ha così ottenuto la più alta percentuale di "sì" nel canton #Kanton_i.</t>
   </si>
   <si>
     <t>Gemeinde mit dem höchsten Ja-Anteil im Kanton (Ja-Anteil muss über 50 liegen)</t>
@@ -297,6 +380,9 @@
     <t>#Gemeinde_f affiche ainsi le plus fort taux de refus du canton de #Kanton_f.</t>
   </si>
   <si>
+    <t>#Gemeinde_i ha così ottenuto la più alta percentuale di "no" nel canton #Kanton_i.</t>
+  </si>
+  <si>
     <t>Gemeinde mit dem höchsten Nein-Anteil im Kanton (Ja-Anteil muss unter 50 liegen)</t>
   </si>
   <si>
@@ -307,6 +393,9 @@
   </si>
   <si>
     <t>#Gemeinde_f a approuvé la modification, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Il comune di #Gemeinde_i approvando la legge si è espresso come il suo cantone.</t>
   </si>
   <si>
     <t>Gemeinde sagt wie der Kanton Ja</t>
@@ -321,6 +410,9 @@
     <t>#Gemeinde_f a refusé la modification, contrairement à son canton.</t>
   </si>
   <si>
+    <t>Il comune di #Gemeinde_i respingendo la legge è andato controcorrente rispetto al suo cantone.</t>
+  </si>
+  <si>
     <t>Gemeinde sagt Nein, Kanton Ja</t>
   </si>
   <si>
@@ -331,6 +423,9 @@
   </si>
   <si>
     <t>#Gemeinde_f a accepté cette modification, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Il comune di #Gemeinde_i approvando la legge è andato controcorrente rispetto al suo cantone.</t>
   </si>
   <si>
     <t>Gemeinde sagt Ja, Kanton Nein</t>
@@ -345,6 +440,9 @@
     <t>#Gemeinde_f a rejeté la modification, tout comme son canton.</t>
   </si>
   <si>
+    <t>Il comune di #Gemeinde_i bocciando la legge si è espresso come il suo cantone.</t>
+  </si>
+  <si>
     <t>Gemeinde sagt wie der Kanton Nein</t>
   </si>
   <si>
@@ -354,10 +452,16 @@
     <t>La population de #Gemeinde_f approuve à #JaStimmenInProzent pour cent la modification de la loi sur la transplantation d'organes.</t>
   </si>
   <si>
+    <t>Nel comune di #Gemeinde_i la legge sui trapianti è stata accettata con il #JaStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mit #JaStimmenAbsolut Ja zu #NeinStimmenAbsolut Nein hat sich #Gemeinde_d für die Änderung des Transplantationsgesetzes ausgesprochen. Die entspricht #JaStimmenInProzent Prozent. </t>
   </si>
   <si>
     <t>#Gemeinde_f dit oui à #JaStimmenInProzent pour cent à la modification de la loi sur la transplantation d'organes.</t>
+  </si>
+  <si>
+    <t>Sì alla legge sui trapianti nel comune di #Gemeinde_i: i cittadini hanno approvato il testo con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben sich für die Änderung des Transplantationsgesetzes ausgesprochen.</t>
@@ -366,10 +470,16 @@
     <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pour cent à la modification de la loi sur la transplantation d'organes.</t>
   </si>
   <si>
+    <t>Nel comune di #Gemeinde_i la legge sui trapianti è stata approvata con il #JaStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Die Änderung des Transplantationsgesetzes ist in #Gemeinde_d mit #JaStimmenInProzent Prozent der Stimmen angenommen worden.</t>
   </si>
   <si>
     <t>La loi sur la transplantation d'organes est approuvée à #Gemeinde_f par #JaStimmenInProzent pour cent des votants.</t>
+  </si>
+  <si>
+    <t>I cittadini di #Gemeinde_i si sono espressi a favore della legge sui trapianti. Il testo è stato approvato con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger in #Gemeinde_d haben Ja gesagt zur Änderung des Transplantationsgesetzes.</t>
@@ -378,10 +488,16 @@
     <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la modification de la loi sur la transplantation d'organes.</t>
   </si>
   <si>
+    <t>Con il #JaStimmenInProzent percento di "sì", i cittadini del comune di #Gemeinde_i hanno accolto la legge sui trapianti.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat die Änderung des Transplantationsgesetzes mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen zugestimmt. Die entspricht einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent.</t>
   </si>
   <si>
     <t>La loi sur la transplantation d'organes passe la rampe avec #JaStimmenInProzent pour cent de oui à #Gemeinde_f.</t>
+  </si>
+  <si>
+    <t>Da #Gemeinde_i è arrivato un "sì" alle urne per la legge sui trapianti. I cittadini hanno accolto il testo con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Änderung des Transplantationsgesetzes mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
@@ -390,13 +506,22 @@
     <t>Les habitants de #Gemeinde_f soutiennent à #JaStimmenInProzent pour cent la modification de la loi sur la transplantation d'organes.</t>
   </si>
   <si>
+    <t>A #Gemeinde_i i cittadini hanno accolto, con il #JaStimmenInProzent percento dei voti, la legge sui trapianti.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen die Änderung des Transplantationsgesetzes angenommen.</t>
   </si>
   <si>
     <t>La loi modifiée sur la transplantation d'organes est validée à #Gemeinde_f. Les citoyens de cette petite commune sont #JaStimmenAbsolut à soutenir le texte, contre #NeinStimmenAbsolut à le refuser.</t>
   </si>
   <si>
+    <t>Con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut, i cittadini di #Gemeinde_i hanno approvato la legge sui trapianti.</t>
+  </si>
+  <si>
     <t>Les électeurs de la petite commune de #Gemeinde_f ont accordé leur confiance à la loi sur la transplantation d'organes. Ils ont dit oui à cette modification par #JaStimmenAbsolut voix, contre #NeinStimmenAbsolut.</t>
+  </si>
+  <si>
+    <t>Nel comune di #Gemeinde_i la legge sui trapianti è stata accettata con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut.</t>
   </si>
   <si>
     <t xml:space="preserve">Die Gemeinde #Gemeinde_d ist gegen die Änderung des Transplantationsgesetzes: Sie hat den Bundesbeschluss mit #NeinStimmenInProzent Prozent Nein verworfen. </t>
@@ -405,10 +530,16 @@
     <t xml:space="preserve">La modification de la loi sur la transplantation d'organes est refusée à #NeinStimmenInProzent pour cent à #Gemeinde_f. </t>
   </si>
   <si>
+    <t>Nel comune di #Gemeinde_i la legge sui trapianti è stata bocciata con il #NeinStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben die Änderung des Transplantationsgesetzes abgelehnt.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f s'opposent à la modification de la loi sur la transplantation d'organes par #NeinStimmenInProzent pour cent des voix.</t>
+  </si>
+  <si>
+    <t>No alla legge sui trapianti nel comune di #Gemeinde_i: i cittadini hanno bocciato il testo con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#NeinStimmenInProzent Prozent Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben Nein gesagt zur Änderung des Transplantationsgesetzes.</t>
@@ -417,10 +548,16 @@
     <t>A #Gemeinde_f, les citoyens rejettent à #NeinStimmenInProzent pour cent la loi sur la transplantation d'organes.</t>
   </si>
   <si>
+    <t>I cittadini di #Gemeinde_i si sono espressi contro la legge sui trapianti. Il testo è stato respinto con il #NeinStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmbürgerinnen und Stimmbürger von #Gemeinde_d die Änderung des Transplantationsgesetzes abgelehnt. Dies entspricht #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
     <t>La population de #Gemeinde_f rejette à #NeinStimmenInProzent pour cent des voix la loi sur la transplantation d'organes.</t>
+  </si>
+  <si>
+    <t>Con il #NeinStimmenInProzent percento di "no", i cittadini del comune di #Gemeinde_i hanno respinto la legge sui trapianti.</t>
   </si>
   <si>
     <t>Die Änderung des Transplantationsgesetzes ist in #Gemeinde_d mit #NeinStimmenInProzent Prozent abgelehnt worden.</t>
@@ -429,10 +566,16 @@
     <t>La nouvelle loi sur la transplantation d'organes n'a pas convaincu à #Gemeinde_f. Les citoyens de la commune ont refusé la modification à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
-    <t>Nein zur Änderung des Transplantationsgesetzes: #Gemeinde_d hat den Bundesbeschluss mit #NeinStimmenInProzent Prozent Nein-Stimmen verworfen.</t>
+    <t>Da #Gemeinde_i è arrivato un "no" alle urne per la legge sui trapianti. I cittadini hanno bocciato il testo con il #NeinStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des Transplantationsgesetzes: #Gemeinde_d hat die Vorlage mit #NeinStimmenInProzent Prozent Nein-Stimmen verworfen.</t>
   </si>
   <si>
     <t>La nouvelle loi sur la transplantation d'organes n'a pas trouvé grâce aux yeux des citoyens de #Gemeinde_f. Ils ont refusé la modification à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>Nel comune di #Gemeinde_i la legge sui trapianti è stata respinta con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>In #Gemeinde_d die Änderung des Transplantationsgesetzes keine Mehrheit gefunden: #NeinStimmenInProzent Prozent haben es abgelehnt.</t>
@@ -441,10 +584,16 @@
     <t>C'est non à la loi sur la transplantation d'organes à #Gemeinde_f. Les habitants ont refusé la loi modifiée à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>A #Gemeinde_i i cittadini hanno respinto, con il #NeinStimmenInProzent percento dei voti, la legge sui trapianti.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d will nichts wissen von der Änderung des Transplantationsgesetzes: Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen hat die Gemeinde die Vorlage verworfen.</t>
   </si>
   <si>
     <t>Les habitants de la petite commune de #Gemeinde_f ont refusé la modification de la loi sur la transplantation d'organes. Ils ont dit non par #NeinStimmenAbsolut voix contre #JaStimmenAbsolut.</t>
+  </si>
+  <si>
+    <t>Nel comune di #Gemeinde_i la legge sui trapianti è stata bocciata con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut.</t>
   </si>
   <si>
     <t>Nein zur Änderung des Transplantationsgesetzes in #Gemeinde_d. Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten die Vorlage verworfen.</t>
@@ -453,10 +602,16 @@
     <t>La nouvelle loi sur la transplantation d'organes ne passe pas la rampe à #Gemeinde_f. Les habitants de cette petite commune l'ont rejetée par #NeinStimmenAbsolut voix, contre #JaStimmenAbsolut.</t>
   </si>
   <si>
+    <t>Con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut, i cittadini di #Gemeinde_i hanno respinto la legge sui trapianti.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unentschieden in #Gemeinde_d: Genau gleich viele Stimmbürgerinnen und Stimmbürger haben bei Abstimmung über ein Änderung des Transplantationsgesetzes ein Ja oder ein Nein in die Urne gelegt, nämlich #JaStimmenAbsolut. </t>
   </si>
   <si>
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver la modification de la loi sur la transplantation d'organes et #NeinStimmenAbsolut à la refuser.</t>
+  </si>
+  <si>
+    <t>Pareggio perfetto a #Gemeinde_i! Sono stati #JaStimmenAbsolut a votare a favore della legge sui trapianti, lo stesso identico numero dei contrari.</t>
   </si>
   <si>
     <t>Klares Resultat in #Gemeinde_d: Alle #JaStimmenAbsolut Abstimmenden sagen Ja zur Änderung des Transplantationsgesetzes.</t>
@@ -465,10 +620,16 @@
     <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la loi modifiée sur la transplantation d'organes</t>
   </si>
   <si>
-    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden Nein gesagt zur Änderung des Transplantationsgesetzes.</t>
+    <t>Un risultato più chiaro è difficile da trovare: a #Gemeinde_i tutti e #JaStimmenAbsolut i votanti hanno accettato la legge sui trapianti.</t>
+  </si>
+  <si>
+    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden nein gesagt zur Änderung des Transplantationsgesetzes.</t>
   </si>
   <si>
     <t>Un non sec et sonnant à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la modification de la loi sur la transplantation d'organes.</t>
+  </si>
+  <si>
+    <t>Una bocciatura più chiara è difficile da trovare: a #Gemeinde_i tutti e #NeinStimmenAbsolut i votanti hanno respinto la legge sui trapianti.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat die Änderung des Transplantationsgesetzes von allen Schweizer Gemeinden am deutlichsten angenommen und zwar mit #JaStimmenInProzent Prozent der Stimmen.</t>
@@ -477,10 +638,16 @@
     <t>Nulle part ailleurs en Suisse, la loi sur la transplantation d'organes est approuvée plus clairement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>In nessun’altra parte della Svizzera la legge sui trapianti è stata approvata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat der Änderung des Transplantationsgesetzes mit dem schweizweit zweithöchsten Ja-Anteil zugestimmt, nämlich mit #JaStimmenInProzent Prozent Ja.</t>
   </si>
   <si>
     <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de la nouvelle loi sur la transplantation d'organes. Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli allalegge sui trapianti. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat schweizweit den dritthöchsten Ja-Anteil bei der Abstimmung über die Änderung des Transplantationsgesetzes: #JaStimmenInProzent Prozent haben der Vorlage zugestimmt.</t>
@@ -489,10 +656,16 @@
     <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations de la nouvelle loi sur la transplantation d'organes. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli alla legge sui trapianti. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen die Änderung des Transplantationsgesetzes ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
     <t>Nulle part ailleurs en Suisse, la loi sur la transplantation d'organes n'est rejetée plus fortement qu'à #Gemeinde_f: c'est non à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>In nessun’altra parte della Svizzera la legge sui trapianti è stata bocciata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat #Gemeinde_d hat die Änderung des Transplantationsgesetzes mit dem schweizweit zweithöchsten Nein-Anteil abgelehnt, nämlich mit #NeinStimmenInProzent Nein.</t>
@@ -501,10 +674,16 @@
     <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de la loi sur la transplantation d'organes. Elle dit non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori alla legge sui trapianti. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>#Gemeinde_d hat schweizweit den dritthöchsten Nein-Anteil bei der Abstimmung über die Änderung des Transplantationsgesetzes: #NeinStimmenInProzent Prozent haben es verworfen.</t>
   </si>
   <si>
     <t>#Gemeinde_f se classe au troisième rang des plus forts refus de la loi sur la transplantation d'organes. Le rejet atteint #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori alla legge sui trapianti. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -516,10 +695,16 @@
     <t>Les habitants de #Gemeinde_f acceptent le renforcement de la participation de la Suisse à Frontex avec #JaStimmenInProzent pour cent de oui.</t>
   </si>
   <si>
+    <t>Nel comune di #Gemeinde_i la maggiore partecipazione a Frontex è stata accettata con il #JaStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Ja zum höheren Frontex-Beitrag in #Gemeinde_d: Mit #JaStimmenInProzent Prozent haben die Stimmbürgerinnen und Stimmbürger die Vorlage angenommen.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f approuvent le renforcement de la participation de la Suisse à Frontex avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
+    <t>Sì al una maggiore partecipazione a Frontex nel comune di #Gemeinde_i: i cittadini hanno approvato il testo con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat den höheren Frontex-Beitrag mit #JaStimmenInProzent Prozent angenommen.</t>
@@ -528,10 +713,16 @@
     <t>A #Gemeinde_f, les habitants disent oui à #JaStimmenInProzent pour cent au renforcement de la participation de la Suisse à Frontex.</t>
   </si>
   <si>
+    <t>Nel comune di #Gemeinde_i la maggiore partecipazione a Frontex è stata approvata con il #JaStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung dem höheren Frontext-Beitrag zugestimmt. Sie wurde mit einem Ja-Stimmen-Anteil von #JaStimmenInProzent Prozent angenommen. </t>
   </si>
   <si>
     <t>A #Gemeinde_f, les habitants sont favorables au renforcement de la participation de la Suisse à Frontex avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
+    <t>I cittadini di #Gemeinde_i si sono espressi a favore della la maggiore partecipazione a Frontex. Il testo è stato approvato con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t xml:space="preserve">#JaStimmenInProzent Prozent der Abstimmenden in der Gemeinde #Gemeinde_d haben Ja gesagt zum höheren Frontex-Beitrag. </t>
@@ -540,10 +731,16 @@
     <t>C'est oui à #JaStimmenInProzent pour cent au renforcement de la participation de la Suisse à Frontex à #Gemeinde_f.</t>
   </si>
   <si>
+    <t>Con il #JaStimmenInProzent percento di "sì", i cittadini del comune di #Gemeinde_i hanno accolto la maggiore partecipazione a Frontex.</t>
+  </si>
+  <si>
     <t>Ja zum höheren Frontex-Beitrag in #Gemeinde_d. Die Gemeinde hat die Vorlage mit #JaStimmenInProzent Prozent der Stimmen angenommen.</t>
   </si>
   <si>
     <t>Le renforcement de la participation de la Suisse à Frontex passe la rampe à #Gemeinde_f avec #JaStimmenInProzent pour cent de oui.</t>
+  </si>
+  <si>
+    <t>Da #Gemeinde_i è arrivato un "sì" alle urne per la maggiore partecipazione a Frontex. I cittadini hanno accolto il testo con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t xml:space="preserve">#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben einem höheren Frontex-Beitrag zugestimmt. </t>
@@ -552,10 +749,16 @@
     <t>Les électeurs de #Gemeinde_f valident le renforcement de la participation de la Suisse à Frontex avec #JaStimmenInProzent pour cent de oui.</t>
   </si>
   <si>
+    <t>A #Gemeinde_i i cittadini hanno accolto, con il #JaStimmenInProzent percento dei voti, la maggiore partecipazione a Frontex.</t>
+  </si>
+  <si>
     <t>Die Stimmbevölkerung von #Gemeinde_d hat sich mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut für einen höheren Frontex-Beitrag ausgesprochen.</t>
   </si>
   <si>
     <t>Le renforcement de la participation de la Suisse à Frontex passe la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à approuver le texte et #NeinStimmenAbsolut à le refuser.</t>
+  </si>
+  <si>
+    <t>Con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut, i cittadini di #Gemeinde_i hanno approvato la maggiore partecipazione a Frontex.</t>
   </si>
   <si>
     <t>Mit #JaStimmenAbsolut Ja- zu #NeinStimmenAbsolut Nein-Stimmen hat #Gemeinde_d den höheren Frontex-Beitrag angenommen.</t>
@@ -564,10 +767,16 @@
     <t>Le renforcement de la participation de la Suisse à Frontex est accepté à #Gemeinde_f. Les électeurs de cette petite commune sont #JaStimmenAbsolut à dire oui, contre #NeinStimmenAbsolut à s'y opposer.</t>
   </si>
   <si>
+    <t>Nel comune di #Gemeinde_i la maggiore partecipazione a Frontex è stata accettata con #JaStimmenAbsolut voti contro #NeinStimmenAbsolut.</t>
+  </si>
+  <si>
     <t>In #Gemeinde_d hat der höhere Frontex-Beitrag keine Mehrheit gefunden. Auf #NeinStimmenInProzent Prozent der abgegebenen Stimmzettel stand ein Nein.</t>
   </si>
   <si>
     <t>Les habitants de #Gemeinde_f rejettent le renforcement de la participation de la Suisse à Frontex avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
+    <t>Nel comune di #Gemeinde_i la maggiore partecipazione a Frontex è stata bocciata con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#NeinStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d sagen Nein zum höheren Frontex-Beitrag.</t>
@@ -576,10 +785,16 @@
     <t>Les habitants de #Gemeinde_f s'opposent au renforcement de la participation de la Suisse à Frontex avec #NeinStimmenInProzent pour cent de non.</t>
   </si>
   <si>
+    <t>No a una maggiore partecipazione a Frontex nel comune di #Gemeinde_i: i cittadini hanno bocciato il testo con il #NeinStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nein zum höheren Frontex-Beitrag in #Gemeinde_d. Die Gemeinde hat die Vorlage mit #NeinStimmenInProzent Prozent abgelehnt. </t>
   </si>
   <si>
     <t>A #Gemeinde_f, les habitants disent non à #NeinStimmenInProzent pour cent au renforcement de la participation de la Suisse à Frontex.</t>
+  </si>
+  <si>
+    <t>I cittadini di #Gemeinde_i si sono espressi contro la maggiore partecipazione a Frontex. Il testo è stato respinto con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t xml:space="preserve">In #Gemeinde_d hat die Stimmbevölkerung den höheren Frontex-Beitrag abgelehnt. Die Vorlage wurde mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent verworfen. </t>
@@ -588,16 +803,25 @@
     <t>A #Gemeinde_f, les habitants sont défavorables au renforcement de la participation de la Suisse à Frontex avec #NeinStimmenInProzent pour cent de non.</t>
   </si>
   <si>
+    <t>Con il #NeinStimmenInProzent percento di "no", i cittadini del comune di #Gemeinde_i hanno respinto la maggiore partecipazione a Frontex.</t>
+  </si>
+  <si>
     <t>Keine Mehrheit für den höheren Frontex-Beitrag in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein-Stimmen zu #JaStimmenAbsolut Ja-Stimmen oder #NeinStimmenInProzent Prozent hat die Gemeinde die Vorlage verworfen.</t>
   </si>
   <si>
     <t>C'est non à #NeinStimmenInProzent pour cent au renforcement de la participation de la Suisse à Frontex à #Gemeinde_f.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat einen höheren Frontex-Beitrag mit #NeinStimmenInProzent Prozent abgelehnt.</t>
+    <t>Da #Gemeinde_i è arrivato un "no" alle urne per la maggiore partecipazione a Frontex. I cittadini hanno bocciato il testo con il #NeinStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat den höheren Frontex-Beitrag mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
     <t>Le renforcement de la participation de la Suisse à Frontex ne passe pas la rampe à #Gemeinde_f avec #NeinStimmenInProzent pour cent de non.</t>
+  </si>
+  <si>
+    <t>Nel comune di #Gemeinde_i la maggiore partecipazione a Frontex è stata respinta con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Nein zum höheren Frontex-Beitrag in #Gemeinde_d: Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmbürgerinnen und Stimmbürger die Vorlage abgelehnt. Das sind #NeinStimmenInProzent Prozent.</t>
@@ -606,10 +830,16 @@
     <t>Le renforcement de la participation de la Suisse à Frontex échoue à #Gemeinde_f avec #NeinStimmenInProzent pour cent de non.</t>
   </si>
   <si>
+    <t>A #Gemeinde_i i cittadini hanno respinto, con il #NeinStimmenInProzent percento dei voti, la maggiore partecipazione a Frontex.</t>
+  </si>
+  <si>
     <t>Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen hat die Gemeinde #Gemeinde_d einen höheren Frontex-Beitrag abgelehnt.</t>
   </si>
   <si>
     <t>Le renforcement de la participation de la Suisse à Frontex ne passe pas la rampe à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à refuser le texte et #JaStimmenAbsolut à l'approuver.</t>
+  </si>
+  <si>
+    <t>Nel comune di #Gemeinde_i la maggiore partecipazione a Frontex è stata bocciata con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut.</t>
   </si>
   <si>
     <t>Nein zum höheren Frontex-Beitrag in #Gemeinde_d. Mit #NeinStimmenAbsolut Nein- zu #JaStimmenAbsolut Ja-Stimmen haben die Stimmberechtigten die Vorlage verworfen.</t>
@@ -618,10 +848,16 @@
     <t>Le renforcement de la participation de la Suisse à Frontex est rejeté à #Gemeinde_f. Les électeurs de cette petite commune sont #NeinStimmenAbsolut à dire non et #JaStimmenAbsolut à accepter le texte.</t>
   </si>
   <si>
+    <t>Con #NeinStimmenAbsolut voti contro #JaStimmenAbsolut, i cittadini di #Gemeinde_i hanno respinto la maggiore partecipazione a Frontex.</t>
+  </si>
+  <si>
     <t>Unentschieden in #Gemeinde_d: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner eines höheren Frontex-Beitrags genau die Waage.</t>
   </si>
   <si>
     <t>Egalité parfaite à #Gemeinde_f! Les électeurs de cette commune sont #JaStimmenAbsolut à approuver le renforcement de la participation de la Suisse à Frontex et #JaStimmenAbsolut à le refuser.</t>
+  </si>
+  <si>
+    <t>Pareggio perfetto a #Gemeinde_i! Sono stati #JaStimmenAbsolut a votare a favore della maggiore partecipazione a Frontex, lo stesso identico numero dei contrari.</t>
   </si>
   <si>
     <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden einer Erhöung des Frontex-Beitrages zugestimmt.</t>
@@ -630,10 +866,16 @@
     <t>Résultat clair et net à #Gemeinde_f. Les #JaStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous le renforcement de la participation de la Suisse à Frontex.</t>
   </si>
   <si>
+    <t>Un risultato più chiaro è difficile da trovare: a #Gemeinde_i tutti e #JaStimmenAbsolut i votanti hanno accettato la maggiore partecipazione a Frontex.</t>
+  </si>
+  <si>
     <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden den höheren Frontex-Beitrag abgelehnt.</t>
   </si>
   <si>
     <t>Refus clair et net à #Gemeinde_f. Les #NeinStimmenAbsolut électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous le renforcement de la participation de la Suisse à Frontex.</t>
+  </si>
+  <si>
+    <t>Una bocciatura più chiara è difficile da trovare: a #Gemeinde_i tutti e #NeinStimmenAbsolut i votanti hanno respinto la maggiore partecipazione a Frontex.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat am Abstimmungssonntag für einen Rekord gesorgt: Sie hat den höheren Frontex-Beitrag mit dem höchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent befürworteten die Vorlage.</t>
@@ -642,10 +884,16 @@
     <t>Nulle part ailleurs en Suisse, le renforcement de la participation de la Suisse à Frontex est approuvé plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>In nessun’altra parte della Svizzera la maggiore partecipazione a Frontex è stata approvata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Die Gemeinde #Gemeinde_d hat den höheren Frontex-Beitrag mit dem zweithöchsten Ja-Anteil in der ganzen Schweiz zugestimmt: #JaStimmenInProzent Prozent befürworteten die Vorlage.</t>
   </si>
   <si>
     <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations du renforcement de la participation de la Suisse à Frontex. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli alla maggiore partecipazione a Frontex. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat den höheren Frontex-Beitrag mit dem dritthöchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent stimmten für die Vorlage.</t>
@@ -654,10 +902,16 @@
     <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations du renforcement de la participation de la Suisse à Frontex. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli alla maggiore partecipazione a Frontex. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen einen höheren Frontex-Beitrag ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
   </si>
   <si>
     <t>Nulle part ailleurs en Suisse, le renforcement de la participation de la Suisse à Frontex n'est rejeté plus fortement qu'à #Gemeinde_f. Les électeurs de cette commune disent non à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>In nessun’altra parte della Svizzera la maggiore partecipazione a Frontex è stata bocciata così chiaramente come a #Gemeinde_i. Gli elettori hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat den höheren Frontex-Beitrag mit dem zweithöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
@@ -666,10 +920,16 @@
     <t>#Gemeinde_f se classe au deuxième rang des plus forts refus du renforcement de la participation de la Suisse à Frontex. Ses citoyens disent non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori alla maggiore partecipazione a Frontex. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
+  </si>
+  <si>
     <t>Die Gemeinde #Gemeinde_d hat den höheren Frontex-Beitrag mit dem dritthöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
   </si>
   <si>
     <t>#Gemeinde_f se classe au troisième rang des plus forts refus du renforcement de la participation de la Suisse à Frontex.Ses citoyens disent non à #NeinStimmenInProzent pour cent.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori ala maggiore partecipazione a Frontex. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Le plus fort pourcentage de oui du canton de #Kanton_f a été obtenu à #Gemeinde_f.</t>
@@ -999,37 +1259,37 @@
     <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton Basel-Landschaft, der die Vorlage angenommen hat.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat den Klimaschutzartikel in der Verfassung des Kantons Zürich mit #JaStimmenInProzent Prozent angenommen.</t>
+    <t>#Gemeinde_d hat den Klimaschutzartikel in der Kantonsverfassung mit #JaStimmenInProzent Prozent angenommen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für den Klimaschutzartikel in der Verfassung des Kantons Zürich ausgesprochen. </t>
+    <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für den Klimaschutzartikel in der Kantonsverfassung ausgesprochen. </t>
   </si>
   <si>
-    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben dem Klimaschutzartikel in der Verfassung des Kantons Zürich zugestimmt.</t>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben dem Klimaschutzartikel in der Kantonsverfassung zugestimmt.</t>
   </si>
   <si>
-    <t>Der Klimaschutzartikel in der Verfassung des Kantons Zürich ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten ihn ab.</t>
+    <t>Der Klimaschutzartikel in der Kantonsverfassung ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten ihn ab.</t>
   </si>
   <si>
-    <t>#Gemeinde_d hat den Klimaschutzartikel in der Verfassung des Kantons Zürich mit #NeinStimmenInProzent Prozent abgelehnt.</t>
+    <t>#Gemeinde_d hat den Klimaschutzartikel in der Kantonsverfassung mit #NeinStimmenInProzent Prozent abgelehnt.</t>
   </si>
   <si>
-    <t>Nein zum Klimaschutzartikel in der Verfassung des Kantons Zürich in #Gemeinde_d: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
+    <t>Nein zum Klimaschutzartikel in der Kantonsverfassung in #Gemeinde_d: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
   </si>
   <si>
-    <t>Keine Mehrheit für den Klimaschutzartikel in der Verfassung des Kantons Zürich in #Gemeinde_d. #NeinStimmenInProzent Prozent haben die Vorlage verworfen.</t>
+    <t>Keine Mehrheit für den Klimaschutzartikel in der Kantonsverfassung in #Gemeinde_d. #NeinStimmenInProzent Prozent haben die Vorlage verworfen.</t>
   </si>
   <si>
-    <t>Der Klimaschutzartikel in der Verfassung des Kantons Zürich ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
+    <t>Der Klimaschutzartikel in der Kantonsverfassung ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
   </si>
   <si>
-    <t>Unentschieden in #Gemeinde_d bei der Abstimmung über den Klimaschutzartikel in der Verfassung des Kantons Zürich: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
+    <t>Unentschieden in #Gemeinde_d bei der Abstimmung über den Klimaschutzartikel in der Kantonsverfassung: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
   </si>
   <si>
-    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden dem Klimaschutzartikel in der Verfassung des Kantons Zürich zugestimmt.</t>
+    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden dem Klimaschutzartikel in der Kantonsverfassung zugestimmt.</t>
   </si>
   <si>
-    <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden den Klimaschutzartikel in der Verfassung des Kantons Zürich abgelehnt.</t>
+    <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden den Klimaschutzartikel in der Kantonsverfassung abgelehnt.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat damit gleich abgestimmt wie der Kanton Zürich, der die Vorlage auch angenommen hat.</t>
@@ -1389,10 +1649,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -1663,9 +1919,11 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1673,447 +1931,511 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="E23" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="E24" s="7" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>93</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="E26" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="E27" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="E28" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="E29" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="E30" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="E31" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="E32" s="7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="E33" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F33" s="13"/>
     </row>
     <row r="34">
       <c r="A34" s="15" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="E34" s="7" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="F34" s="13"/>
     </row>
@@ -6015,11 +6337,11 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6027,7 +6349,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -6036,170 +6358,170 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>327</v>
+        <v>414</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>332</v>
+        <v>419</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="C15" s="22"/>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="C16" s="22"/>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
       <c r="C17" s="22"/>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>311</v>
+        <v>398</v>
       </c>
       <c r="C18" s="22"/>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -9105,3137 +9427,52 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.63"/>
-    <col customWidth="1" min="2" max="2" width="44.88"/>
-    <col customWidth="1" min="3" max="3" width="44.5"/>
-    <col customWidth="1" min="4" max="4" width="34.13"/>
-    <col customWidth="1" min="5" max="5" width="61.5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="5"/>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="E12" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="5"/>
-      <c r="E13" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="22"/>
-      <c r="E15" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="22"/>
-      <c r="E16" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="22"/>
-      <c r="E17" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="22"/>
-      <c r="E18" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="17"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="17"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="17"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="17"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="17"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="17"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="17"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="17"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="17"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="17"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="17"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="17"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="17"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="17"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="17"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="17"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="17"/>
-    </row>
-    <row r="43">
-      <c r="B43" s="17"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="17"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="17"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="17"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="17"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="17"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="17"/>
-    </row>
-    <row r="50">
-      <c r="B50" s="17"/>
-    </row>
-    <row r="51">
-      <c r="B51" s="17"/>
-    </row>
-    <row r="52">
-      <c r="B52" s="17"/>
-    </row>
-    <row r="53">
-      <c r="B53" s="17"/>
-    </row>
-    <row r="54">
-      <c r="B54" s="17"/>
-    </row>
-    <row r="55">
-      <c r="B55" s="17"/>
-    </row>
-    <row r="56">
-      <c r="B56" s="17"/>
-    </row>
-    <row r="57">
-      <c r="B57" s="17"/>
-    </row>
-    <row r="58">
-      <c r="B58" s="17"/>
-    </row>
-    <row r="59">
-      <c r="B59" s="17"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="17"/>
-    </row>
-    <row r="61">
-      <c r="B61" s="17"/>
-    </row>
-    <row r="62">
-      <c r="B62" s="17"/>
-    </row>
-    <row r="63">
-      <c r="B63" s="17"/>
-    </row>
-    <row r="64">
-      <c r="B64" s="17"/>
-    </row>
-    <row r="65">
-      <c r="B65" s="17"/>
-    </row>
-    <row r="66">
-      <c r="B66" s="17"/>
-    </row>
-    <row r="67">
-      <c r="B67" s="17"/>
-    </row>
-    <row r="68">
-      <c r="B68" s="17"/>
-    </row>
-    <row r="69">
-      <c r="B69" s="17"/>
-    </row>
-    <row r="70">
-      <c r="B70" s="17"/>
-    </row>
-    <row r="71">
-      <c r="B71" s="17"/>
-    </row>
-    <row r="72">
-      <c r="B72" s="17"/>
-    </row>
-    <row r="73">
-      <c r="B73" s="17"/>
-    </row>
-    <row r="74">
-      <c r="B74" s="17"/>
-    </row>
-    <row r="75">
-      <c r="B75" s="17"/>
-    </row>
-    <row r="76">
-      <c r="B76" s="17"/>
-    </row>
-    <row r="77">
-      <c r="B77" s="17"/>
-    </row>
-    <row r="78">
-      <c r="B78" s="17"/>
-    </row>
-    <row r="79">
-      <c r="B79" s="17"/>
-    </row>
-    <row r="80">
-      <c r="B80" s="17"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="17"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="17"/>
-    </row>
-    <row r="83">
-      <c r="B83" s="17"/>
-    </row>
-    <row r="84">
-      <c r="B84" s="17"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="17"/>
-    </row>
-    <row r="86">
-      <c r="B86" s="17"/>
-    </row>
-    <row r="87">
-      <c r="B87" s="17"/>
-    </row>
-    <row r="88">
-      <c r="B88" s="17"/>
-    </row>
-    <row r="89">
-      <c r="B89" s="17"/>
-    </row>
-    <row r="90">
-      <c r="B90" s="17"/>
-    </row>
-    <row r="91">
-      <c r="B91" s="17"/>
-    </row>
-    <row r="92">
-      <c r="B92" s="17"/>
-    </row>
-    <row r="93">
-      <c r="B93" s="17"/>
-    </row>
-    <row r="94">
-      <c r="B94" s="17"/>
-    </row>
-    <row r="95">
-      <c r="B95" s="17"/>
-    </row>
-    <row r="96">
-      <c r="B96" s="17"/>
-    </row>
-    <row r="97">
-      <c r="B97" s="17"/>
-    </row>
-    <row r="98">
-      <c r="B98" s="17"/>
-    </row>
-    <row r="99">
-      <c r="B99" s="17"/>
-    </row>
-    <row r="100">
-      <c r="B100" s="17"/>
-    </row>
-    <row r="101">
-      <c r="B101" s="17"/>
-    </row>
-    <row r="102">
-      <c r="B102" s="17"/>
-    </row>
-    <row r="103">
-      <c r="B103" s="17"/>
-    </row>
-    <row r="104">
-      <c r="B104" s="17"/>
-    </row>
-    <row r="105">
-      <c r="B105" s="17"/>
-    </row>
-    <row r="106">
-      <c r="B106" s="17"/>
-    </row>
-    <row r="107">
-      <c r="B107" s="17"/>
-    </row>
-    <row r="108">
-      <c r="B108" s="17"/>
-    </row>
-    <row r="109">
-      <c r="B109" s="17"/>
-    </row>
-    <row r="110">
-      <c r="B110" s="17"/>
-    </row>
-    <row r="111">
-      <c r="B111" s="17"/>
-    </row>
-    <row r="112">
-      <c r="B112" s="17"/>
-    </row>
-    <row r="113">
-      <c r="B113" s="17"/>
-    </row>
-    <row r="114">
-      <c r="B114" s="17"/>
-    </row>
-    <row r="115">
-      <c r="B115" s="17"/>
-    </row>
-    <row r="116">
-      <c r="B116" s="17"/>
-    </row>
-    <row r="117">
-      <c r="B117" s="17"/>
-    </row>
-    <row r="118">
-      <c r="B118" s="17"/>
-    </row>
-    <row r="119">
-      <c r="B119" s="17"/>
-    </row>
-    <row r="120">
-      <c r="B120" s="17"/>
-    </row>
-    <row r="121">
-      <c r="B121" s="17"/>
-    </row>
-    <row r="122">
-      <c r="B122" s="17"/>
-    </row>
-    <row r="123">
-      <c r="B123" s="17"/>
-    </row>
-    <row r="124">
-      <c r="B124" s="17"/>
-    </row>
-    <row r="125">
-      <c r="B125" s="17"/>
-    </row>
-    <row r="126">
-      <c r="B126" s="17"/>
-    </row>
-    <row r="127">
-      <c r="B127" s="17"/>
-    </row>
-    <row r="128">
-      <c r="B128" s="17"/>
-    </row>
-    <row r="129">
-      <c r="B129" s="17"/>
-    </row>
-    <row r="130">
-      <c r="B130" s="17"/>
-    </row>
-    <row r="131">
-      <c r="B131" s="17"/>
-    </row>
-    <row r="132">
-      <c r="B132" s="17"/>
-    </row>
-    <row r="133">
-      <c r="B133" s="17"/>
-    </row>
-    <row r="134">
-      <c r="B134" s="17"/>
-    </row>
-    <row r="135">
-      <c r="B135" s="17"/>
-    </row>
-    <row r="136">
-      <c r="B136" s="17"/>
-    </row>
-    <row r="137">
-      <c r="B137" s="17"/>
-    </row>
-    <row r="138">
-      <c r="B138" s="17"/>
-    </row>
-    <row r="139">
-      <c r="B139" s="17"/>
-    </row>
-    <row r="140">
-      <c r="B140" s="17"/>
-    </row>
-    <row r="141">
-      <c r="B141" s="17"/>
-    </row>
-    <row r="142">
-      <c r="B142" s="17"/>
-    </row>
-    <row r="143">
-      <c r="B143" s="17"/>
-    </row>
-    <row r="144">
-      <c r="B144" s="17"/>
-    </row>
-    <row r="145">
-      <c r="B145" s="17"/>
-    </row>
-    <row r="146">
-      <c r="B146" s="17"/>
-    </row>
-    <row r="147">
-      <c r="B147" s="17"/>
-    </row>
-    <row r="148">
-      <c r="B148" s="17"/>
-    </row>
-    <row r="149">
-      <c r="B149" s="17"/>
-    </row>
-    <row r="150">
-      <c r="B150" s="17"/>
-    </row>
-    <row r="151">
-      <c r="B151" s="17"/>
-    </row>
-    <row r="152">
-      <c r="B152" s="17"/>
-    </row>
-    <row r="153">
-      <c r="B153" s="17"/>
-    </row>
-    <row r="154">
-      <c r="B154" s="17"/>
-    </row>
-    <row r="155">
-      <c r="B155" s="17"/>
-    </row>
-    <row r="156">
-      <c r="B156" s="17"/>
-    </row>
-    <row r="157">
-      <c r="B157" s="17"/>
-    </row>
-    <row r="158">
-      <c r="B158" s="17"/>
-    </row>
-    <row r="159">
-      <c r="B159" s="17"/>
-    </row>
-    <row r="160">
-      <c r="B160" s="17"/>
-    </row>
-    <row r="161">
-      <c r="B161" s="17"/>
-    </row>
-    <row r="162">
-      <c r="B162" s="17"/>
-    </row>
-    <row r="163">
-      <c r="B163" s="17"/>
-    </row>
-    <row r="164">
-      <c r="B164" s="17"/>
-    </row>
-    <row r="165">
-      <c r="B165" s="17"/>
-    </row>
-    <row r="166">
-      <c r="B166" s="17"/>
-    </row>
-    <row r="167">
-      <c r="B167" s="17"/>
-    </row>
-    <row r="168">
-      <c r="B168" s="17"/>
-    </row>
-    <row r="169">
-      <c r="B169" s="17"/>
-    </row>
-    <row r="170">
-      <c r="B170" s="17"/>
-    </row>
-    <row r="171">
-      <c r="B171" s="17"/>
-    </row>
-    <row r="172">
-      <c r="B172" s="17"/>
-    </row>
-    <row r="173">
-      <c r="B173" s="17"/>
-    </row>
-    <row r="174">
-      <c r="B174" s="17"/>
-    </row>
-    <row r="175">
-      <c r="B175" s="17"/>
-    </row>
-    <row r="176">
-      <c r="B176" s="17"/>
-    </row>
-    <row r="177">
-      <c r="B177" s="17"/>
-    </row>
-    <row r="178">
-      <c r="B178" s="17"/>
-    </row>
-    <row r="179">
-      <c r="B179" s="17"/>
-    </row>
-    <row r="180">
-      <c r="B180" s="17"/>
-    </row>
-    <row r="181">
-      <c r="B181" s="17"/>
-    </row>
-    <row r="182">
-      <c r="B182" s="17"/>
-    </row>
-    <row r="183">
-      <c r="B183" s="17"/>
-    </row>
-    <row r="184">
-      <c r="B184" s="17"/>
-    </row>
-    <row r="185">
-      <c r="B185" s="17"/>
-    </row>
-    <row r="186">
-      <c r="B186" s="17"/>
-    </row>
-    <row r="187">
-      <c r="B187" s="17"/>
-    </row>
-    <row r="188">
-      <c r="B188" s="17"/>
-    </row>
-    <row r="189">
-      <c r="B189" s="17"/>
-    </row>
-    <row r="190">
-      <c r="B190" s="17"/>
-    </row>
-    <row r="191">
-      <c r="B191" s="17"/>
-    </row>
-    <row r="192">
-      <c r="B192" s="17"/>
-    </row>
-    <row r="193">
-      <c r="B193" s="17"/>
-    </row>
-    <row r="194">
-      <c r="B194" s="17"/>
-    </row>
-    <row r="195">
-      <c r="B195" s="17"/>
-    </row>
-    <row r="196">
-      <c r="B196" s="17"/>
-    </row>
-    <row r="197">
-      <c r="B197" s="17"/>
-    </row>
-    <row r="198">
-      <c r="B198" s="17"/>
-    </row>
-    <row r="199">
-      <c r="B199" s="17"/>
-    </row>
-    <row r="200">
-      <c r="B200" s="17"/>
-    </row>
-    <row r="201">
-      <c r="B201" s="17"/>
-    </row>
-    <row r="202">
-      <c r="B202" s="17"/>
-    </row>
-    <row r="203">
-      <c r="B203" s="17"/>
-    </row>
-    <row r="204">
-      <c r="B204" s="17"/>
-    </row>
-    <row r="205">
-      <c r="B205" s="17"/>
-    </row>
-    <row r="206">
-      <c r="B206" s="17"/>
-    </row>
-    <row r="207">
-      <c r="B207" s="17"/>
-    </row>
-    <row r="208">
-      <c r="B208" s="17"/>
-    </row>
-    <row r="209">
-      <c r="B209" s="17"/>
-    </row>
-    <row r="210">
-      <c r="B210" s="17"/>
-    </row>
-    <row r="211">
-      <c r="B211" s="17"/>
-    </row>
-    <row r="212">
-      <c r="B212" s="17"/>
-    </row>
-    <row r="213">
-      <c r="B213" s="17"/>
-    </row>
-    <row r="214">
-      <c r="B214" s="17"/>
-    </row>
-    <row r="215">
-      <c r="B215" s="17"/>
-    </row>
-    <row r="216">
-      <c r="B216" s="17"/>
-    </row>
-    <row r="217">
-      <c r="B217" s="17"/>
-    </row>
-    <row r="218">
-      <c r="B218" s="17"/>
-    </row>
-    <row r="219">
-      <c r="B219" s="17"/>
-    </row>
-    <row r="220">
-      <c r="B220" s="17"/>
-    </row>
-    <row r="221">
-      <c r="B221" s="17"/>
-    </row>
-    <row r="222">
-      <c r="B222" s="17"/>
-    </row>
-    <row r="223">
-      <c r="B223" s="17"/>
-    </row>
-    <row r="224">
-      <c r="B224" s="17"/>
-    </row>
-    <row r="225">
-      <c r="B225" s="17"/>
-    </row>
-    <row r="226">
-      <c r="B226" s="17"/>
-    </row>
-    <row r="227">
-      <c r="B227" s="17"/>
-    </row>
-    <row r="228">
-      <c r="B228" s="17"/>
-    </row>
-    <row r="229">
-      <c r="B229" s="17"/>
-    </row>
-    <row r="230">
-      <c r="B230" s="17"/>
-    </row>
-    <row r="231">
-      <c r="B231" s="17"/>
-    </row>
-    <row r="232">
-      <c r="B232" s="17"/>
-    </row>
-    <row r="233">
-      <c r="B233" s="17"/>
-    </row>
-    <row r="234">
-      <c r="B234" s="17"/>
-    </row>
-    <row r="235">
-      <c r="B235" s="17"/>
-    </row>
-    <row r="236">
-      <c r="B236" s="17"/>
-    </row>
-    <row r="237">
-      <c r="B237" s="17"/>
-    </row>
-    <row r="238">
-      <c r="B238" s="17"/>
-    </row>
-    <row r="239">
-      <c r="B239" s="17"/>
-    </row>
-    <row r="240">
-      <c r="B240" s="17"/>
-    </row>
-    <row r="241">
-      <c r="B241" s="17"/>
-    </row>
-    <row r="242">
-      <c r="B242" s="17"/>
-    </row>
-    <row r="243">
-      <c r="B243" s="17"/>
-    </row>
-    <row r="244">
-      <c r="B244" s="17"/>
-    </row>
-    <row r="245">
-      <c r="B245" s="17"/>
-    </row>
-    <row r="246">
-      <c r="B246" s="17"/>
-    </row>
-    <row r="247">
-      <c r="B247" s="17"/>
-    </row>
-    <row r="248">
-      <c r="B248" s="17"/>
-    </row>
-    <row r="249">
-      <c r="B249" s="17"/>
-    </row>
-    <row r="250">
-      <c r="B250" s="17"/>
-    </row>
-    <row r="251">
-      <c r="B251" s="17"/>
-    </row>
-    <row r="252">
-      <c r="B252" s="17"/>
-    </row>
-    <row r="253">
-      <c r="B253" s="17"/>
-    </row>
-    <row r="254">
-      <c r="B254" s="17"/>
-    </row>
-    <row r="255">
-      <c r="B255" s="17"/>
-    </row>
-    <row r="256">
-      <c r="B256" s="17"/>
-    </row>
-    <row r="257">
-      <c r="B257" s="17"/>
-    </row>
-    <row r="258">
-      <c r="B258" s="17"/>
-    </row>
-    <row r="259">
-      <c r="B259" s="17"/>
-    </row>
-    <row r="260">
-      <c r="B260" s="17"/>
-    </row>
-    <row r="261">
-      <c r="B261" s="17"/>
-    </row>
-    <row r="262">
-      <c r="B262" s="17"/>
-    </row>
-    <row r="263">
-      <c r="B263" s="17"/>
-    </row>
-    <row r="264">
-      <c r="B264" s="17"/>
-    </row>
-    <row r="265">
-      <c r="B265" s="17"/>
-    </row>
-    <row r="266">
-      <c r="B266" s="17"/>
-    </row>
-    <row r="267">
-      <c r="B267" s="17"/>
-    </row>
-    <row r="268">
-      <c r="B268" s="17"/>
-    </row>
-    <row r="269">
-      <c r="B269" s="17"/>
-    </row>
-    <row r="270">
-      <c r="B270" s="17"/>
-    </row>
-    <row r="271">
-      <c r="B271" s="17"/>
-    </row>
-    <row r="272">
-      <c r="B272" s="17"/>
-    </row>
-    <row r="273">
-      <c r="B273" s="17"/>
-    </row>
-    <row r="274">
-      <c r="B274" s="17"/>
-    </row>
-    <row r="275">
-      <c r="B275" s="17"/>
-    </row>
-    <row r="276">
-      <c r="B276" s="17"/>
-    </row>
-    <row r="277">
-      <c r="B277" s="17"/>
-    </row>
-    <row r="278">
-      <c r="B278" s="17"/>
-    </row>
-    <row r="279">
-      <c r="B279" s="17"/>
-    </row>
-    <row r="280">
-      <c r="B280" s="17"/>
-    </row>
-    <row r="281">
-      <c r="B281" s="17"/>
-    </row>
-    <row r="282">
-      <c r="B282" s="17"/>
-    </row>
-    <row r="283">
-      <c r="B283" s="17"/>
-    </row>
-    <row r="284">
-      <c r="B284" s="17"/>
-    </row>
-    <row r="285">
-      <c r="B285" s="17"/>
-    </row>
-    <row r="286">
-      <c r="B286" s="17"/>
-    </row>
-    <row r="287">
-      <c r="B287" s="17"/>
-    </row>
-    <row r="288">
-      <c r="B288" s="17"/>
-    </row>
-    <row r="289">
-      <c r="B289" s="17"/>
-    </row>
-    <row r="290">
-      <c r="B290" s="17"/>
-    </row>
-    <row r="291">
-      <c r="B291" s="17"/>
-    </row>
-    <row r="292">
-      <c r="B292" s="17"/>
-    </row>
-    <row r="293">
-      <c r="B293" s="17"/>
-    </row>
-    <row r="294">
-      <c r="B294" s="17"/>
-    </row>
-    <row r="295">
-      <c r="B295" s="17"/>
-    </row>
-    <row r="296">
-      <c r="B296" s="17"/>
-    </row>
-    <row r="297">
-      <c r="B297" s="17"/>
-    </row>
-    <row r="298">
-      <c r="B298" s="17"/>
-    </row>
-    <row r="299">
-      <c r="B299" s="17"/>
-    </row>
-    <row r="300">
-      <c r="B300" s="17"/>
-    </row>
-    <row r="301">
-      <c r="B301" s="17"/>
-    </row>
-    <row r="302">
-      <c r="B302" s="17"/>
-    </row>
-    <row r="303">
-      <c r="B303" s="17"/>
-    </row>
-    <row r="304">
-      <c r="B304" s="17"/>
-    </row>
-    <row r="305">
-      <c r="B305" s="17"/>
-    </row>
-    <row r="306">
-      <c r="B306" s="17"/>
-    </row>
-    <row r="307">
-      <c r="B307" s="17"/>
-    </row>
-    <row r="308">
-      <c r="B308" s="17"/>
-    </row>
-    <row r="309">
-      <c r="B309" s="17"/>
-    </row>
-    <row r="310">
-      <c r="B310" s="17"/>
-    </row>
-    <row r="311">
-      <c r="B311" s="17"/>
-    </row>
-    <row r="312">
-      <c r="B312" s="17"/>
-    </row>
-    <row r="313">
-      <c r="B313" s="17"/>
-    </row>
-    <row r="314">
-      <c r="B314" s="17"/>
-    </row>
-    <row r="315">
-      <c r="B315" s="17"/>
-    </row>
-    <row r="316">
-      <c r="B316" s="17"/>
-    </row>
-    <row r="317">
-      <c r="B317" s="17"/>
-    </row>
-    <row r="318">
-      <c r="B318" s="17"/>
-    </row>
-    <row r="319">
-      <c r="B319" s="17"/>
-    </row>
-    <row r="320">
-      <c r="B320" s="17"/>
-    </row>
-    <row r="321">
-      <c r="B321" s="17"/>
-    </row>
-    <row r="322">
-      <c r="B322" s="17"/>
-    </row>
-    <row r="323">
-      <c r="B323" s="17"/>
-    </row>
-    <row r="324">
-      <c r="B324" s="17"/>
-    </row>
-    <row r="325">
-      <c r="B325" s="17"/>
-    </row>
-    <row r="326">
-      <c r="B326" s="17"/>
-    </row>
-    <row r="327">
-      <c r="B327" s="17"/>
-    </row>
-    <row r="328">
-      <c r="B328" s="17"/>
-    </row>
-    <row r="329">
-      <c r="B329" s="17"/>
-    </row>
-    <row r="330">
-      <c r="B330" s="17"/>
-    </row>
-    <row r="331">
-      <c r="B331" s="17"/>
-    </row>
-    <row r="332">
-      <c r="B332" s="17"/>
-    </row>
-    <row r="333">
-      <c r="B333" s="17"/>
-    </row>
-    <row r="334">
-      <c r="B334" s="17"/>
-    </row>
-    <row r="335">
-      <c r="B335" s="17"/>
-    </row>
-    <row r="336">
-      <c r="B336" s="17"/>
-    </row>
-    <row r="337">
-      <c r="B337" s="17"/>
-    </row>
-    <row r="338">
-      <c r="B338" s="17"/>
-    </row>
-    <row r="339">
-      <c r="B339" s="17"/>
-    </row>
-    <row r="340">
-      <c r="B340" s="17"/>
-    </row>
-    <row r="341">
-      <c r="B341" s="17"/>
-    </row>
-    <row r="342">
-      <c r="B342" s="17"/>
-    </row>
-    <row r="343">
-      <c r="B343" s="17"/>
-    </row>
-    <row r="344">
-      <c r="B344" s="17"/>
-    </row>
-    <row r="345">
-      <c r="B345" s="17"/>
-    </row>
-    <row r="346">
-      <c r="B346" s="17"/>
-    </row>
-    <row r="347">
-      <c r="B347" s="17"/>
-    </row>
-    <row r="348">
-      <c r="B348" s="17"/>
-    </row>
-    <row r="349">
-      <c r="B349" s="17"/>
-    </row>
-    <row r="350">
-      <c r="B350" s="17"/>
-    </row>
-    <row r="351">
-      <c r="B351" s="17"/>
-    </row>
-    <row r="352">
-      <c r="B352" s="17"/>
-    </row>
-    <row r="353">
-      <c r="B353" s="17"/>
-    </row>
-    <row r="354">
-      <c r="B354" s="17"/>
-    </row>
-    <row r="355">
-      <c r="B355" s="17"/>
-    </row>
-    <row r="356">
-      <c r="B356" s="17"/>
-    </row>
-    <row r="357">
-      <c r="B357" s="17"/>
-    </row>
-    <row r="358">
-      <c r="B358" s="17"/>
-    </row>
-    <row r="359">
-      <c r="B359" s="17"/>
-    </row>
-    <row r="360">
-      <c r="B360" s="17"/>
-    </row>
-    <row r="361">
-      <c r="B361" s="17"/>
-    </row>
-    <row r="362">
-      <c r="B362" s="17"/>
-    </row>
-    <row r="363">
-      <c r="B363" s="17"/>
-    </row>
-    <row r="364">
-      <c r="B364" s="17"/>
-    </row>
-    <row r="365">
-      <c r="B365" s="17"/>
-    </row>
-    <row r="366">
-      <c r="B366" s="17"/>
-    </row>
-    <row r="367">
-      <c r="B367" s="17"/>
-    </row>
-    <row r="368">
-      <c r="B368" s="17"/>
-    </row>
-    <row r="369">
-      <c r="B369" s="17"/>
-    </row>
-    <row r="370">
-      <c r="B370" s="17"/>
-    </row>
-    <row r="371">
-      <c r="B371" s="17"/>
-    </row>
-    <row r="372">
-      <c r="B372" s="17"/>
-    </row>
-    <row r="373">
-      <c r="B373" s="17"/>
-    </row>
-    <row r="374">
-      <c r="B374" s="17"/>
-    </row>
-    <row r="375">
-      <c r="B375" s="17"/>
-    </row>
-    <row r="376">
-      <c r="B376" s="17"/>
-    </row>
-    <row r="377">
-      <c r="B377" s="17"/>
-    </row>
-    <row r="378">
-      <c r="B378" s="17"/>
-    </row>
-    <row r="379">
-      <c r="B379" s="17"/>
-    </row>
-    <row r="380">
-      <c r="B380" s="17"/>
-    </row>
-    <row r="381">
-      <c r="B381" s="17"/>
-    </row>
-    <row r="382">
-      <c r="B382" s="17"/>
-    </row>
-    <row r="383">
-      <c r="B383" s="17"/>
-    </row>
-    <row r="384">
-      <c r="B384" s="17"/>
-    </row>
-    <row r="385">
-      <c r="B385" s="17"/>
-    </row>
-    <row r="386">
-      <c r="B386" s="17"/>
-    </row>
-    <row r="387">
-      <c r="B387" s="17"/>
-    </row>
-    <row r="388">
-      <c r="B388" s="17"/>
-    </row>
-    <row r="389">
-      <c r="B389" s="17"/>
-    </row>
-    <row r="390">
-      <c r="B390" s="17"/>
-    </row>
-    <row r="391">
-      <c r="B391" s="17"/>
-    </row>
-    <row r="392">
-      <c r="B392" s="17"/>
-    </row>
-    <row r="393">
-      <c r="B393" s="17"/>
-    </row>
-    <row r="394">
-      <c r="B394" s="17"/>
-    </row>
-    <row r="395">
-      <c r="B395" s="17"/>
-    </row>
-    <row r="396">
-      <c r="B396" s="17"/>
-    </row>
-    <row r="397">
-      <c r="B397" s="17"/>
-    </row>
-    <row r="398">
-      <c r="B398" s="17"/>
-    </row>
-    <row r="399">
-      <c r="B399" s="17"/>
-    </row>
-    <row r="400">
-      <c r="B400" s="17"/>
-    </row>
-    <row r="401">
-      <c r="B401" s="17"/>
-    </row>
-    <row r="402">
-      <c r="B402" s="17"/>
-    </row>
-    <row r="403">
-      <c r="B403" s="17"/>
-    </row>
-    <row r="404">
-      <c r="B404" s="17"/>
-    </row>
-    <row r="405">
-      <c r="B405" s="17"/>
-    </row>
-    <row r="406">
-      <c r="B406" s="17"/>
-    </row>
-    <row r="407">
-      <c r="B407" s="17"/>
-    </row>
-    <row r="408">
-      <c r="B408" s="17"/>
-    </row>
-    <row r="409">
-      <c r="B409" s="17"/>
-    </row>
-    <row r="410">
-      <c r="B410" s="17"/>
-    </row>
-    <row r="411">
-      <c r="B411" s="17"/>
-    </row>
-    <row r="412">
-      <c r="B412" s="17"/>
-    </row>
-    <row r="413">
-      <c r="B413" s="17"/>
-    </row>
-    <row r="414">
-      <c r="B414" s="17"/>
-    </row>
-    <row r="415">
-      <c r="B415" s="17"/>
-    </row>
-    <row r="416">
-      <c r="B416" s="17"/>
-    </row>
-    <row r="417">
-      <c r="B417" s="17"/>
-    </row>
-    <row r="418">
-      <c r="B418" s="17"/>
-    </row>
-    <row r="419">
-      <c r="B419" s="17"/>
-    </row>
-    <row r="420">
-      <c r="B420" s="17"/>
-    </row>
-    <row r="421">
-      <c r="B421" s="17"/>
-    </row>
-    <row r="422">
-      <c r="B422" s="17"/>
-    </row>
-    <row r="423">
-      <c r="B423" s="17"/>
-    </row>
-    <row r="424">
-      <c r="B424" s="17"/>
-    </row>
-    <row r="425">
-      <c r="B425" s="17"/>
-    </row>
-    <row r="426">
-      <c r="B426" s="17"/>
-    </row>
-    <row r="427">
-      <c r="B427" s="17"/>
-    </row>
-    <row r="428">
-      <c r="B428" s="17"/>
-    </row>
-    <row r="429">
-      <c r="B429" s="17"/>
-    </row>
-    <row r="430">
-      <c r="B430" s="17"/>
-    </row>
-    <row r="431">
-      <c r="B431" s="17"/>
-    </row>
-    <row r="432">
-      <c r="B432" s="17"/>
-    </row>
-    <row r="433">
-      <c r="B433" s="17"/>
-    </row>
-    <row r="434">
-      <c r="B434" s="17"/>
-    </row>
-    <row r="435">
-      <c r="B435" s="17"/>
-    </row>
-    <row r="436">
-      <c r="B436" s="17"/>
-    </row>
-    <row r="437">
-      <c r="B437" s="17"/>
-    </row>
-    <row r="438">
-      <c r="B438" s="17"/>
-    </row>
-    <row r="439">
-      <c r="B439" s="17"/>
-    </row>
-    <row r="440">
-      <c r="B440" s="17"/>
-    </row>
-    <row r="441">
-      <c r="B441" s="17"/>
-    </row>
-    <row r="442">
-      <c r="B442" s="17"/>
-    </row>
-    <row r="443">
-      <c r="B443" s="17"/>
-    </row>
-    <row r="444">
-      <c r="B444" s="17"/>
-    </row>
-    <row r="445">
-      <c r="B445" s="17"/>
-    </row>
-    <row r="446">
-      <c r="B446" s="17"/>
-    </row>
-    <row r="447">
-      <c r="B447" s="17"/>
-    </row>
-    <row r="448">
-      <c r="B448" s="17"/>
-    </row>
-    <row r="449">
-      <c r="B449" s="17"/>
-    </row>
-    <row r="450">
-      <c r="B450" s="17"/>
-    </row>
-    <row r="451">
-      <c r="B451" s="17"/>
-    </row>
-    <row r="452">
-      <c r="B452" s="17"/>
-    </row>
-    <row r="453">
-      <c r="B453" s="17"/>
-    </row>
-    <row r="454">
-      <c r="B454" s="17"/>
-    </row>
-    <row r="455">
-      <c r="B455" s="17"/>
-    </row>
-    <row r="456">
-      <c r="B456" s="17"/>
-    </row>
-    <row r="457">
-      <c r="B457" s="17"/>
-    </row>
-    <row r="458">
-      <c r="B458" s="17"/>
-    </row>
-    <row r="459">
-      <c r="B459" s="17"/>
-    </row>
-    <row r="460">
-      <c r="B460" s="17"/>
-    </row>
-    <row r="461">
-      <c r="B461" s="17"/>
-    </row>
-    <row r="462">
-      <c r="B462" s="17"/>
-    </row>
-    <row r="463">
-      <c r="B463" s="17"/>
-    </row>
-    <row r="464">
-      <c r="B464" s="17"/>
-    </row>
-    <row r="465">
-      <c r="B465" s="17"/>
-    </row>
-    <row r="466">
-      <c r="B466" s="17"/>
-    </row>
-    <row r="467">
-      <c r="B467" s="17"/>
-    </row>
-    <row r="468">
-      <c r="B468" s="17"/>
-    </row>
-    <row r="469">
-      <c r="B469" s="17"/>
-    </row>
-    <row r="470">
-      <c r="B470" s="17"/>
-    </row>
-    <row r="471">
-      <c r="B471" s="17"/>
-    </row>
-    <row r="472">
-      <c r="B472" s="17"/>
-    </row>
-    <row r="473">
-      <c r="B473" s="17"/>
-    </row>
-    <row r="474">
-      <c r="B474" s="17"/>
-    </row>
-    <row r="475">
-      <c r="B475" s="17"/>
-    </row>
-    <row r="476">
-      <c r="B476" s="17"/>
-    </row>
-    <row r="477">
-      <c r="B477" s="17"/>
-    </row>
-    <row r="478">
-      <c r="B478" s="17"/>
-    </row>
-    <row r="479">
-      <c r="B479" s="17"/>
-    </row>
-    <row r="480">
-      <c r="B480" s="17"/>
-    </row>
-    <row r="481">
-      <c r="B481" s="17"/>
-    </row>
-    <row r="482">
-      <c r="B482" s="17"/>
-    </row>
-    <row r="483">
-      <c r="B483" s="17"/>
-    </row>
-    <row r="484">
-      <c r="B484" s="17"/>
-    </row>
-    <row r="485">
-      <c r="B485" s="17"/>
-    </row>
-    <row r="486">
-      <c r="B486" s="17"/>
-    </row>
-    <row r="487">
-      <c r="B487" s="17"/>
-    </row>
-    <row r="488">
-      <c r="B488" s="17"/>
-    </row>
-    <row r="489">
-      <c r="B489" s="17"/>
-    </row>
-    <row r="490">
-      <c r="B490" s="17"/>
-    </row>
-    <row r="491">
-      <c r="B491" s="17"/>
-    </row>
-    <row r="492">
-      <c r="B492" s="17"/>
-    </row>
-    <row r="493">
-      <c r="B493" s="17"/>
-    </row>
-    <row r="494">
-      <c r="B494" s="17"/>
-    </row>
-    <row r="495">
-      <c r="B495" s="17"/>
-    </row>
-    <row r="496">
-      <c r="B496" s="17"/>
-    </row>
-    <row r="497">
-      <c r="B497" s="17"/>
-    </row>
-    <row r="498">
-      <c r="B498" s="17"/>
-    </row>
-    <row r="499">
-      <c r="B499" s="17"/>
-    </row>
-    <row r="500">
-      <c r="B500" s="17"/>
-    </row>
-    <row r="501">
-      <c r="B501" s="17"/>
-    </row>
-    <row r="502">
-      <c r="B502" s="17"/>
-    </row>
-    <row r="503">
-      <c r="B503" s="17"/>
-    </row>
-    <row r="504">
-      <c r="B504" s="17"/>
-    </row>
-    <row r="505">
-      <c r="B505" s="17"/>
-    </row>
-    <row r="506">
-      <c r="B506" s="17"/>
-    </row>
-    <row r="507">
-      <c r="B507" s="17"/>
-    </row>
-    <row r="508">
-      <c r="B508" s="17"/>
-    </row>
-    <row r="509">
-      <c r="B509" s="17"/>
-    </row>
-    <row r="510">
-      <c r="B510" s="17"/>
-    </row>
-    <row r="511">
-      <c r="B511" s="17"/>
-    </row>
-    <row r="512">
-      <c r="B512" s="17"/>
-    </row>
-    <row r="513">
-      <c r="B513" s="17"/>
-    </row>
-    <row r="514">
-      <c r="B514" s="17"/>
-    </row>
-    <row r="515">
-      <c r="B515" s="17"/>
-    </row>
-    <row r="516">
-      <c r="B516" s="17"/>
-    </row>
-    <row r="517">
-      <c r="B517" s="17"/>
-    </row>
-    <row r="518">
-      <c r="B518" s="17"/>
-    </row>
-    <row r="519">
-      <c r="B519" s="17"/>
-    </row>
-    <row r="520">
-      <c r="B520" s="17"/>
-    </row>
-    <row r="521">
-      <c r="B521" s="17"/>
-    </row>
-    <row r="522">
-      <c r="B522" s="17"/>
-    </row>
-    <row r="523">
-      <c r="B523" s="17"/>
-    </row>
-    <row r="524">
-      <c r="B524" s="17"/>
-    </row>
-    <row r="525">
-      <c r="B525" s="17"/>
-    </row>
-    <row r="526">
-      <c r="B526" s="17"/>
-    </row>
-    <row r="527">
-      <c r="B527" s="17"/>
-    </row>
-    <row r="528">
-      <c r="B528" s="17"/>
-    </row>
-    <row r="529">
-      <c r="B529" s="17"/>
-    </row>
-    <row r="530">
-      <c r="B530" s="17"/>
-    </row>
-    <row r="531">
-      <c r="B531" s="17"/>
-    </row>
-    <row r="532">
-      <c r="B532" s="17"/>
-    </row>
-    <row r="533">
-      <c r="B533" s="17"/>
-    </row>
-    <row r="534">
-      <c r="B534" s="17"/>
-    </row>
-    <row r="535">
-      <c r="B535" s="17"/>
-    </row>
-    <row r="536">
-      <c r="B536" s="17"/>
-    </row>
-    <row r="537">
-      <c r="B537" s="17"/>
-    </row>
-    <row r="538">
-      <c r="B538" s="17"/>
-    </row>
-    <row r="539">
-      <c r="B539" s="17"/>
-    </row>
-    <row r="540">
-      <c r="B540" s="17"/>
-    </row>
-    <row r="541">
-      <c r="B541" s="17"/>
-    </row>
-    <row r="542">
-      <c r="B542" s="17"/>
-    </row>
-    <row r="543">
-      <c r="B543" s="17"/>
-    </row>
-    <row r="544">
-      <c r="B544" s="17"/>
-    </row>
-    <row r="545">
-      <c r="B545" s="17"/>
-    </row>
-    <row r="546">
-      <c r="B546" s="17"/>
-    </row>
-    <row r="547">
-      <c r="B547" s="17"/>
-    </row>
-    <row r="548">
-      <c r="B548" s="17"/>
-    </row>
-    <row r="549">
-      <c r="B549" s="17"/>
-    </row>
-    <row r="550">
-      <c r="B550" s="17"/>
-    </row>
-    <row r="551">
-      <c r="B551" s="17"/>
-    </row>
-    <row r="552">
-      <c r="B552" s="17"/>
-    </row>
-    <row r="553">
-      <c r="B553" s="17"/>
-    </row>
-    <row r="554">
-      <c r="B554" s="17"/>
-    </row>
-    <row r="555">
-      <c r="B555" s="17"/>
-    </row>
-    <row r="556">
-      <c r="B556" s="17"/>
-    </row>
-    <row r="557">
-      <c r="B557" s="17"/>
-    </row>
-    <row r="558">
-      <c r="B558" s="17"/>
-    </row>
-    <row r="559">
-      <c r="B559" s="17"/>
-    </row>
-    <row r="560">
-      <c r="B560" s="17"/>
-    </row>
-    <row r="561">
-      <c r="B561" s="17"/>
-    </row>
-    <row r="562">
-      <c r="B562" s="17"/>
-    </row>
-    <row r="563">
-      <c r="B563" s="17"/>
-    </row>
-    <row r="564">
-      <c r="B564" s="17"/>
-    </row>
-    <row r="565">
-      <c r="B565" s="17"/>
-    </row>
-    <row r="566">
-      <c r="B566" s="17"/>
-    </row>
-    <row r="567">
-      <c r="B567" s="17"/>
-    </row>
-    <row r="568">
-      <c r="B568" s="17"/>
-    </row>
-    <row r="569">
-      <c r="B569" s="17"/>
-    </row>
-    <row r="570">
-      <c r="B570" s="17"/>
-    </row>
-    <row r="571">
-      <c r="B571" s="17"/>
-    </row>
-    <row r="572">
-      <c r="B572" s="17"/>
-    </row>
-    <row r="573">
-      <c r="B573" s="17"/>
-    </row>
-    <row r="574">
-      <c r="B574" s="17"/>
-    </row>
-    <row r="575">
-      <c r="B575" s="17"/>
-    </row>
-    <row r="576">
-      <c r="B576" s="17"/>
-    </row>
-    <row r="577">
-      <c r="B577" s="17"/>
-    </row>
-    <row r="578">
-      <c r="B578" s="17"/>
-    </row>
-    <row r="579">
-      <c r="B579" s="17"/>
-    </row>
-    <row r="580">
-      <c r="B580" s="17"/>
-    </row>
-    <row r="581">
-      <c r="B581" s="17"/>
-    </row>
-    <row r="582">
-      <c r="B582" s="17"/>
-    </row>
-    <row r="583">
-      <c r="B583" s="17"/>
-    </row>
-    <row r="584">
-      <c r="B584" s="17"/>
-    </row>
-    <row r="585">
-      <c r="B585" s="17"/>
-    </row>
-    <row r="586">
-      <c r="B586" s="17"/>
-    </row>
-    <row r="587">
-      <c r="B587" s="17"/>
-    </row>
-    <row r="588">
-      <c r="B588" s="17"/>
-    </row>
-    <row r="589">
-      <c r="B589" s="17"/>
-    </row>
-    <row r="590">
-      <c r="B590" s="17"/>
-    </row>
-    <row r="591">
-      <c r="B591" s="17"/>
-    </row>
-    <row r="592">
-      <c r="B592" s="17"/>
-    </row>
-    <row r="593">
-      <c r="B593" s="17"/>
-    </row>
-    <row r="594">
-      <c r="B594" s="17"/>
-    </row>
-    <row r="595">
-      <c r="B595" s="17"/>
-    </row>
-    <row r="596">
-      <c r="B596" s="17"/>
-    </row>
-    <row r="597">
-      <c r="B597" s="17"/>
-    </row>
-    <row r="598">
-      <c r="B598" s="17"/>
-    </row>
-    <row r="599">
-      <c r="B599" s="17"/>
-    </row>
-    <row r="600">
-      <c r="B600" s="17"/>
-    </row>
-    <row r="601">
-      <c r="B601" s="17"/>
-    </row>
-    <row r="602">
-      <c r="B602" s="17"/>
-    </row>
-    <row r="603">
-      <c r="B603" s="17"/>
-    </row>
-    <row r="604">
-      <c r="B604" s="17"/>
-    </row>
-    <row r="605">
-      <c r="B605" s="17"/>
-    </row>
-    <row r="606">
-      <c r="B606" s="17"/>
-    </row>
-    <row r="607">
-      <c r="B607" s="17"/>
-    </row>
-    <row r="608">
-      <c r="B608" s="17"/>
-    </row>
-    <row r="609">
-      <c r="B609" s="17"/>
-    </row>
-    <row r="610">
-      <c r="B610" s="17"/>
-    </row>
-    <row r="611">
-      <c r="B611" s="17"/>
-    </row>
-    <row r="612">
-      <c r="B612" s="17"/>
-    </row>
-    <row r="613">
-      <c r="B613" s="17"/>
-    </row>
-    <row r="614">
-      <c r="B614" s="17"/>
-    </row>
-    <row r="615">
-      <c r="B615" s="17"/>
-    </row>
-    <row r="616">
-      <c r="B616" s="17"/>
-    </row>
-    <row r="617">
-      <c r="B617" s="17"/>
-    </row>
-    <row r="618">
-      <c r="B618" s="17"/>
-    </row>
-    <row r="619">
-      <c r="B619" s="17"/>
-    </row>
-    <row r="620">
-      <c r="B620" s="17"/>
-    </row>
-    <row r="621">
-      <c r="B621" s="17"/>
-    </row>
-    <row r="622">
-      <c r="B622" s="17"/>
-    </row>
-    <row r="623">
-      <c r="B623" s="17"/>
-    </row>
-    <row r="624">
-      <c r="B624" s="17"/>
-    </row>
-    <row r="625">
-      <c r="B625" s="17"/>
-    </row>
-    <row r="626">
-      <c r="B626" s="17"/>
-    </row>
-    <row r="627">
-      <c r="B627" s="17"/>
-    </row>
-    <row r="628">
-      <c r="B628" s="17"/>
-    </row>
-    <row r="629">
-      <c r="B629" s="17"/>
-    </row>
-    <row r="630">
-      <c r="B630" s="17"/>
-    </row>
-    <row r="631">
-      <c r="B631" s="17"/>
-    </row>
-    <row r="632">
-      <c r="B632" s="17"/>
-    </row>
-    <row r="633">
-      <c r="B633" s="17"/>
-    </row>
-    <row r="634">
-      <c r="B634" s="17"/>
-    </row>
-    <row r="635">
-      <c r="B635" s="17"/>
-    </row>
-    <row r="636">
-      <c r="B636" s="17"/>
-    </row>
-    <row r="637">
-      <c r="B637" s="17"/>
-    </row>
-    <row r="638">
-      <c r="B638" s="17"/>
-    </row>
-    <row r="639">
-      <c r="B639" s="17"/>
-    </row>
-    <row r="640">
-      <c r="B640" s="17"/>
-    </row>
-    <row r="641">
-      <c r="B641" s="17"/>
-    </row>
-    <row r="642">
-      <c r="B642" s="17"/>
-    </row>
-    <row r="643">
-      <c r="B643" s="17"/>
-    </row>
-    <row r="644">
-      <c r="B644" s="17"/>
-    </row>
-    <row r="645">
-      <c r="B645" s="17"/>
-    </row>
-    <row r="646">
-      <c r="B646" s="17"/>
-    </row>
-    <row r="647">
-      <c r="B647" s="17"/>
-    </row>
-    <row r="648">
-      <c r="B648" s="17"/>
-    </row>
-    <row r="649">
-      <c r="B649" s="17"/>
-    </row>
-    <row r="650">
-      <c r="B650" s="17"/>
-    </row>
-    <row r="651">
-      <c r="B651" s="17"/>
-    </row>
-    <row r="652">
-      <c r="B652" s="17"/>
-    </row>
-    <row r="653">
-      <c r="B653" s="17"/>
-    </row>
-    <row r="654">
-      <c r="B654" s="17"/>
-    </row>
-    <row r="655">
-      <c r="B655" s="17"/>
-    </row>
-    <row r="656">
-      <c r="B656" s="17"/>
-    </row>
-    <row r="657">
-      <c r="B657" s="17"/>
-    </row>
-    <row r="658">
-      <c r="B658" s="17"/>
-    </row>
-    <row r="659">
-      <c r="B659" s="17"/>
-    </row>
-    <row r="660">
-      <c r="B660" s="17"/>
-    </row>
-    <row r="661">
-      <c r="B661" s="17"/>
-    </row>
-    <row r="662">
-      <c r="B662" s="17"/>
-    </row>
-    <row r="663">
-      <c r="B663" s="17"/>
-    </row>
-    <row r="664">
-      <c r="B664" s="17"/>
-    </row>
-    <row r="665">
-      <c r="B665" s="17"/>
-    </row>
-    <row r="666">
-      <c r="B666" s="17"/>
-    </row>
-    <row r="667">
-      <c r="B667" s="17"/>
-    </row>
-    <row r="668">
-      <c r="B668" s="17"/>
-    </row>
-    <row r="669">
-      <c r="B669" s="17"/>
-    </row>
-    <row r="670">
-      <c r="B670" s="17"/>
-    </row>
-    <row r="671">
-      <c r="B671" s="17"/>
-    </row>
-    <row r="672">
-      <c r="B672" s="17"/>
-    </row>
-    <row r="673">
-      <c r="B673" s="17"/>
-    </row>
-    <row r="674">
-      <c r="B674" s="17"/>
-    </row>
-    <row r="675">
-      <c r="B675" s="17"/>
-    </row>
-    <row r="676">
-      <c r="B676" s="17"/>
-    </row>
-    <row r="677">
-      <c r="B677" s="17"/>
-    </row>
-    <row r="678">
-      <c r="B678" s="17"/>
-    </row>
-    <row r="679">
-      <c r="B679" s="17"/>
-    </row>
-    <row r="680">
-      <c r="B680" s="17"/>
-    </row>
-    <row r="681">
-      <c r="B681" s="17"/>
-    </row>
-    <row r="682">
-      <c r="B682" s="17"/>
-    </row>
-    <row r="683">
-      <c r="B683" s="17"/>
-    </row>
-    <row r="684">
-      <c r="B684" s="17"/>
-    </row>
-    <row r="685">
-      <c r="B685" s="17"/>
-    </row>
-    <row r="686">
-      <c r="B686" s="17"/>
-    </row>
-    <row r="687">
-      <c r="B687" s="17"/>
-    </row>
-    <row r="688">
-      <c r="B688" s="17"/>
-    </row>
-    <row r="689">
-      <c r="B689" s="17"/>
-    </row>
-    <row r="690">
-      <c r="B690" s="17"/>
-    </row>
-    <row r="691">
-      <c r="B691" s="17"/>
-    </row>
-    <row r="692">
-      <c r="B692" s="17"/>
-    </row>
-    <row r="693">
-      <c r="B693" s="17"/>
-    </row>
-    <row r="694">
-      <c r="B694" s="17"/>
-    </row>
-    <row r="695">
-      <c r="B695" s="17"/>
-    </row>
-    <row r="696">
-      <c r="B696" s="17"/>
-    </row>
-    <row r="697">
-      <c r="B697" s="17"/>
-    </row>
-    <row r="698">
-      <c r="B698" s="17"/>
-    </row>
-    <row r="699">
-      <c r="B699" s="17"/>
-    </row>
-    <row r="700">
-      <c r="B700" s="17"/>
-    </row>
-    <row r="701">
-      <c r="B701" s="17"/>
-    </row>
-    <row r="702">
-      <c r="B702" s="17"/>
-    </row>
-    <row r="703">
-      <c r="B703" s="17"/>
-    </row>
-    <row r="704">
-      <c r="B704" s="17"/>
-    </row>
-    <row r="705">
-      <c r="B705" s="17"/>
-    </row>
-    <row r="706">
-      <c r="B706" s="17"/>
-    </row>
-    <row r="707">
-      <c r="B707" s="17"/>
-    </row>
-    <row r="708">
-      <c r="B708" s="17"/>
-    </row>
-    <row r="709">
-      <c r="B709" s="17"/>
-    </row>
-    <row r="710">
-      <c r="B710" s="17"/>
-    </row>
-    <row r="711">
-      <c r="B711" s="17"/>
-    </row>
-    <row r="712">
-      <c r="B712" s="17"/>
-    </row>
-    <row r="713">
-      <c r="B713" s="17"/>
-    </row>
-    <row r="714">
-      <c r="B714" s="17"/>
-    </row>
-    <row r="715">
-      <c r="B715" s="17"/>
-    </row>
-    <row r="716">
-      <c r="B716" s="17"/>
-    </row>
-    <row r="717">
-      <c r="B717" s="17"/>
-    </row>
-    <row r="718">
-      <c r="B718" s="17"/>
-    </row>
-    <row r="719">
-      <c r="B719" s="17"/>
-    </row>
-    <row r="720">
-      <c r="B720" s="17"/>
-    </row>
-    <row r="721">
-      <c r="B721" s="17"/>
-    </row>
-    <row r="722">
-      <c r="B722" s="17"/>
-    </row>
-    <row r="723">
-      <c r="B723" s="17"/>
-    </row>
-    <row r="724">
-      <c r="B724" s="17"/>
-    </row>
-    <row r="725">
-      <c r="B725" s="17"/>
-    </row>
-    <row r="726">
-      <c r="B726" s="17"/>
-    </row>
-    <row r="727">
-      <c r="B727" s="17"/>
-    </row>
-    <row r="728">
-      <c r="B728" s="17"/>
-    </row>
-    <row r="729">
-      <c r="B729" s="17"/>
-    </row>
-    <row r="730">
-      <c r="B730" s="17"/>
-    </row>
-    <row r="731">
-      <c r="B731" s="17"/>
-    </row>
-    <row r="732">
-      <c r="B732" s="17"/>
-    </row>
-    <row r="733">
-      <c r="B733" s="17"/>
-    </row>
-    <row r="734">
-      <c r="B734" s="17"/>
-    </row>
-    <row r="735">
-      <c r="B735" s="17"/>
-    </row>
-    <row r="736">
-      <c r="B736" s="17"/>
-    </row>
-    <row r="737">
-      <c r="B737" s="17"/>
-    </row>
-    <row r="738">
-      <c r="B738" s="17"/>
-    </row>
-    <row r="739">
-      <c r="B739" s="17"/>
-    </row>
-    <row r="740">
-      <c r="B740" s="17"/>
-    </row>
-    <row r="741">
-      <c r="B741" s="17"/>
-    </row>
-    <row r="742">
-      <c r="B742" s="17"/>
-    </row>
-    <row r="743">
-      <c r="B743" s="17"/>
-    </row>
-    <row r="744">
-      <c r="B744" s="17"/>
-    </row>
-    <row r="745">
-      <c r="B745" s="17"/>
-    </row>
-    <row r="746">
-      <c r="B746" s="17"/>
-    </row>
-    <row r="747">
-      <c r="B747" s="17"/>
-    </row>
-    <row r="748">
-      <c r="B748" s="17"/>
-    </row>
-    <row r="749">
-      <c r="B749" s="17"/>
-    </row>
-    <row r="750">
-      <c r="B750" s="17"/>
-    </row>
-    <row r="751">
-      <c r="B751" s="17"/>
-    </row>
-    <row r="752">
-      <c r="B752" s="17"/>
-    </row>
-    <row r="753">
-      <c r="B753" s="17"/>
-    </row>
-    <row r="754">
-      <c r="B754" s="17"/>
-    </row>
-    <row r="755">
-      <c r="B755" s="17"/>
-    </row>
-    <row r="756">
-      <c r="B756" s="17"/>
-    </row>
-    <row r="757">
-      <c r="B757" s="17"/>
-    </row>
-    <row r="758">
-      <c r="B758" s="17"/>
-    </row>
-    <row r="759">
-      <c r="B759" s="17"/>
-    </row>
-    <row r="760">
-      <c r="B760" s="17"/>
-    </row>
-    <row r="761">
-      <c r="B761" s="17"/>
-    </row>
-    <row r="762">
-      <c r="B762" s="17"/>
-    </row>
-    <row r="763">
-      <c r="B763" s="17"/>
-    </row>
-    <row r="764">
-      <c r="B764" s="17"/>
-    </row>
-    <row r="765">
-      <c r="B765" s="17"/>
-    </row>
-    <row r="766">
-      <c r="B766" s="17"/>
-    </row>
-    <row r="767">
-      <c r="B767" s="17"/>
-    </row>
-    <row r="768">
-      <c r="B768" s="17"/>
-    </row>
-    <row r="769">
-      <c r="B769" s="17"/>
-    </row>
-    <row r="770">
-      <c r="B770" s="17"/>
-    </row>
-    <row r="771">
-      <c r="B771" s="17"/>
-    </row>
-    <row r="772">
-      <c r="B772" s="17"/>
-    </row>
-    <row r="773">
-      <c r="B773" s="17"/>
-    </row>
-    <row r="774">
-      <c r="B774" s="17"/>
-    </row>
-    <row r="775">
-      <c r="B775" s="17"/>
-    </row>
-    <row r="776">
-      <c r="B776" s="17"/>
-    </row>
-    <row r="777">
-      <c r="B777" s="17"/>
-    </row>
-    <row r="778">
-      <c r="B778" s="17"/>
-    </row>
-    <row r="779">
-      <c r="B779" s="17"/>
-    </row>
-    <row r="780">
-      <c r="B780" s="17"/>
-    </row>
-    <row r="781">
-      <c r="B781" s="17"/>
-    </row>
-    <row r="782">
-      <c r="B782" s="17"/>
-    </row>
-    <row r="783">
-      <c r="B783" s="17"/>
-    </row>
-    <row r="784">
-      <c r="B784" s="17"/>
-    </row>
-    <row r="785">
-      <c r="B785" s="17"/>
-    </row>
-    <row r="786">
-      <c r="B786" s="17"/>
-    </row>
-    <row r="787">
-      <c r="B787" s="17"/>
-    </row>
-    <row r="788">
-      <c r="B788" s="17"/>
-    </row>
-    <row r="789">
-      <c r="B789" s="17"/>
-    </row>
-    <row r="790">
-      <c r="B790" s="17"/>
-    </row>
-    <row r="791">
-      <c r="B791" s="17"/>
-    </row>
-    <row r="792">
-      <c r="B792" s="17"/>
-    </row>
-    <row r="793">
-      <c r="B793" s="17"/>
-    </row>
-    <row r="794">
-      <c r="B794" s="17"/>
-    </row>
-    <row r="795">
-      <c r="B795" s="17"/>
-    </row>
-    <row r="796">
-      <c r="B796" s="17"/>
-    </row>
-    <row r="797">
-      <c r="B797" s="17"/>
-    </row>
-    <row r="798">
-      <c r="B798" s="17"/>
-    </row>
-    <row r="799">
-      <c r="B799" s="17"/>
-    </row>
-    <row r="800">
-      <c r="B800" s="17"/>
-    </row>
-    <row r="801">
-      <c r="B801" s="17"/>
-    </row>
-    <row r="802">
-      <c r="B802" s="17"/>
-    </row>
-    <row r="803">
-      <c r="B803" s="17"/>
-    </row>
-    <row r="804">
-      <c r="B804" s="17"/>
-    </row>
-    <row r="805">
-      <c r="B805" s="17"/>
-    </row>
-    <row r="806">
-      <c r="B806" s="17"/>
-    </row>
-    <row r="807">
-      <c r="B807" s="17"/>
-    </row>
-    <row r="808">
-      <c r="B808" s="17"/>
-    </row>
-    <row r="809">
-      <c r="B809" s="17"/>
-    </row>
-    <row r="810">
-      <c r="B810" s="17"/>
-    </row>
-    <row r="811">
-      <c r="B811" s="17"/>
-    </row>
-    <row r="812">
-      <c r="B812" s="17"/>
-    </row>
-    <row r="813">
-      <c r="B813" s="17"/>
-    </row>
-    <row r="814">
-      <c r="B814" s="17"/>
-    </row>
-    <row r="815">
-      <c r="B815" s="17"/>
-    </row>
-    <row r="816">
-      <c r="B816" s="17"/>
-    </row>
-    <row r="817">
-      <c r="B817" s="17"/>
-    </row>
-    <row r="818">
-      <c r="B818" s="17"/>
-    </row>
-    <row r="819">
-      <c r="B819" s="17"/>
-    </row>
-    <row r="820">
-      <c r="B820" s="17"/>
-    </row>
-    <row r="821">
-      <c r="B821" s="17"/>
-    </row>
-    <row r="822">
-      <c r="B822" s="17"/>
-    </row>
-    <row r="823">
-      <c r="B823" s="17"/>
-    </row>
-    <row r="824">
-      <c r="B824" s="17"/>
-    </row>
-    <row r="825">
-      <c r="B825" s="17"/>
-    </row>
-    <row r="826">
-      <c r="B826" s="17"/>
-    </row>
-    <row r="827">
-      <c r="B827" s="17"/>
-    </row>
-    <row r="828">
-      <c r="B828" s="17"/>
-    </row>
-    <row r="829">
-      <c r="B829" s="17"/>
-    </row>
-    <row r="830">
-      <c r="B830" s="17"/>
-    </row>
-    <row r="831">
-      <c r="B831" s="17"/>
-    </row>
-    <row r="832">
-      <c r="B832" s="17"/>
-    </row>
-    <row r="833">
-      <c r="B833" s="17"/>
-    </row>
-    <row r="834">
-      <c r="B834" s="17"/>
-    </row>
-    <row r="835">
-      <c r="B835" s="17"/>
-    </row>
-    <row r="836">
-      <c r="B836" s="17"/>
-    </row>
-    <row r="837">
-      <c r="B837" s="17"/>
-    </row>
-    <row r="838">
-      <c r="B838" s="17"/>
-    </row>
-    <row r="839">
-      <c r="B839" s="17"/>
-    </row>
-    <row r="840">
-      <c r="B840" s="17"/>
-    </row>
-    <row r="841">
-      <c r="B841" s="17"/>
-    </row>
-    <row r="842">
-      <c r="B842" s="17"/>
-    </row>
-    <row r="843">
-      <c r="B843" s="17"/>
-    </row>
-    <row r="844">
-      <c r="B844" s="17"/>
-    </row>
-    <row r="845">
-      <c r="B845" s="17"/>
-    </row>
-    <row r="846">
-      <c r="B846" s="17"/>
-    </row>
-    <row r="847">
-      <c r="B847" s="17"/>
-    </row>
-    <row r="848">
-      <c r="B848" s="17"/>
-    </row>
-    <row r="849">
-      <c r="B849" s="17"/>
-    </row>
-    <row r="850">
-      <c r="B850" s="17"/>
-    </row>
-    <row r="851">
-      <c r="B851" s="17"/>
-    </row>
-    <row r="852">
-      <c r="B852" s="17"/>
-    </row>
-    <row r="853">
-      <c r="B853" s="17"/>
-    </row>
-    <row r="854">
-      <c r="B854" s="17"/>
-    </row>
-    <row r="855">
-      <c r="B855" s="17"/>
-    </row>
-    <row r="856">
-      <c r="B856" s="17"/>
-    </row>
-    <row r="857">
-      <c r="B857" s="17"/>
-    </row>
-    <row r="858">
-      <c r="B858" s="17"/>
-    </row>
-    <row r="859">
-      <c r="B859" s="17"/>
-    </row>
-    <row r="860">
-      <c r="B860" s="17"/>
-    </row>
-    <row r="861">
-      <c r="B861" s="17"/>
-    </row>
-    <row r="862">
-      <c r="B862" s="17"/>
-    </row>
-    <row r="863">
-      <c r="B863" s="17"/>
-    </row>
-    <row r="864">
-      <c r="B864" s="17"/>
-    </row>
-    <row r="865">
-      <c r="B865" s="17"/>
-    </row>
-    <row r="866">
-      <c r="B866" s="17"/>
-    </row>
-    <row r="867">
-      <c r="B867" s="17"/>
-    </row>
-    <row r="868">
-      <c r="B868" s="17"/>
-    </row>
-    <row r="869">
-      <c r="B869" s="17"/>
-    </row>
-    <row r="870">
-      <c r="B870" s="17"/>
-    </row>
-    <row r="871">
-      <c r="B871" s="17"/>
-    </row>
-    <row r="872">
-      <c r="B872" s="17"/>
-    </row>
-    <row r="873">
-      <c r="B873" s="17"/>
-    </row>
-    <row r="874">
-      <c r="B874" s="17"/>
-    </row>
-    <row r="875">
-      <c r="B875" s="17"/>
-    </row>
-    <row r="876">
-      <c r="B876" s="17"/>
-    </row>
-    <row r="877">
-      <c r="B877" s="17"/>
-    </row>
-    <row r="878">
-      <c r="B878" s="17"/>
-    </row>
-    <row r="879">
-      <c r="B879" s="17"/>
-    </row>
-    <row r="880">
-      <c r="B880" s="17"/>
-    </row>
-    <row r="881">
-      <c r="B881" s="17"/>
-    </row>
-    <row r="882">
-      <c r="B882" s="17"/>
-    </row>
-    <row r="883">
-      <c r="B883" s="17"/>
-    </row>
-    <row r="884">
-      <c r="B884" s="17"/>
-    </row>
-    <row r="885">
-      <c r="B885" s="17"/>
-    </row>
-    <row r="886">
-      <c r="B886" s="17"/>
-    </row>
-    <row r="887">
-      <c r="B887" s="17"/>
-    </row>
-    <row r="888">
-      <c r="B888" s="17"/>
-    </row>
-    <row r="889">
-      <c r="B889" s="17"/>
-    </row>
-    <row r="890">
-      <c r="B890" s="17"/>
-    </row>
-    <row r="891">
-      <c r="B891" s="17"/>
-    </row>
-    <row r="892">
-      <c r="B892" s="17"/>
-    </row>
-    <row r="893">
-      <c r="B893" s="17"/>
-    </row>
-    <row r="894">
-      <c r="B894" s="17"/>
-    </row>
-    <row r="895">
-      <c r="B895" s="17"/>
-    </row>
-    <row r="896">
-      <c r="B896" s="17"/>
-    </row>
-    <row r="897">
-      <c r="B897" s="17"/>
-    </row>
-    <row r="898">
-      <c r="B898" s="17"/>
-    </row>
-    <row r="899">
-      <c r="B899" s="17"/>
-    </row>
-    <row r="900">
-      <c r="B900" s="17"/>
-    </row>
-    <row r="901">
-      <c r="B901" s="17"/>
-    </row>
-    <row r="902">
-      <c r="B902" s="17"/>
-    </row>
-    <row r="903">
-      <c r="B903" s="17"/>
-    </row>
-    <row r="904">
-      <c r="B904" s="17"/>
-    </row>
-    <row r="905">
-      <c r="B905" s="17"/>
-    </row>
-    <row r="906">
-      <c r="B906" s="17"/>
-    </row>
-    <row r="907">
-      <c r="B907" s="17"/>
-    </row>
-    <row r="908">
-      <c r="B908" s="17"/>
-    </row>
-    <row r="909">
-      <c r="B909" s="17"/>
-    </row>
-    <row r="910">
-      <c r="B910" s="17"/>
-    </row>
-    <row r="911">
-      <c r="B911" s="17"/>
-    </row>
-    <row r="912">
-      <c r="B912" s="17"/>
-    </row>
-    <row r="913">
-      <c r="B913" s="17"/>
-    </row>
-    <row r="914">
-      <c r="B914" s="17"/>
-    </row>
-    <row r="915">
-      <c r="B915" s="17"/>
-    </row>
-    <row r="916">
-      <c r="B916" s="17"/>
-    </row>
-    <row r="917">
-      <c r="B917" s="17"/>
-    </row>
-    <row r="918">
-      <c r="B918" s="17"/>
-    </row>
-    <row r="919">
-      <c r="B919" s="17"/>
-    </row>
-    <row r="920">
-      <c r="B920" s="17"/>
-    </row>
-    <row r="921">
-      <c r="B921" s="17"/>
-    </row>
-    <row r="922">
-      <c r="B922" s="17"/>
-    </row>
-    <row r="923">
-      <c r="B923" s="17"/>
-    </row>
-    <row r="924">
-      <c r="B924" s="17"/>
-    </row>
-    <row r="925">
-      <c r="B925" s="17"/>
-    </row>
-    <row r="926">
-      <c r="B926" s="17"/>
-    </row>
-    <row r="927">
-      <c r="B927" s="17"/>
-    </row>
-    <row r="928">
-      <c r="B928" s="17"/>
-    </row>
-    <row r="929">
-      <c r="B929" s="17"/>
-    </row>
-    <row r="930">
-      <c r="B930" s="17"/>
-    </row>
-    <row r="931">
-      <c r="B931" s="17"/>
-    </row>
-    <row r="932">
-      <c r="B932" s="17"/>
-    </row>
-    <row r="933">
-      <c r="B933" s="17"/>
-    </row>
-    <row r="934">
-      <c r="B934" s="17"/>
-    </row>
-    <row r="935">
-      <c r="B935" s="17"/>
-    </row>
-    <row r="936">
-      <c r="B936" s="17"/>
-    </row>
-    <row r="937">
-      <c r="B937" s="17"/>
-    </row>
-    <row r="938">
-      <c r="B938" s="17"/>
-    </row>
-    <row r="939">
-      <c r="B939" s="17"/>
-    </row>
-    <row r="940">
-      <c r="B940" s="17"/>
-    </row>
-    <row r="941">
-      <c r="B941" s="17"/>
-    </row>
-    <row r="942">
-      <c r="B942" s="17"/>
-    </row>
-    <row r="943">
-      <c r="B943" s="17"/>
-    </row>
-    <row r="944">
-      <c r="B944" s="17"/>
-    </row>
-    <row r="945">
-      <c r="B945" s="17"/>
-    </row>
-    <row r="946">
-      <c r="B946" s="17"/>
-    </row>
-    <row r="947">
-      <c r="B947" s="17"/>
-    </row>
-    <row r="948">
-      <c r="B948" s="17"/>
-    </row>
-    <row r="949">
-      <c r="B949" s="17"/>
-    </row>
-    <row r="950">
-      <c r="B950" s="17"/>
-    </row>
-    <row r="951">
-      <c r="B951" s="17"/>
-    </row>
-    <row r="952">
-      <c r="B952" s="17"/>
-    </row>
-    <row r="953">
-      <c r="B953" s="17"/>
-    </row>
-    <row r="954">
-      <c r="B954" s="17"/>
-    </row>
-    <row r="955">
-      <c r="B955" s="17"/>
-    </row>
-    <row r="956">
-      <c r="B956" s="17"/>
-    </row>
-    <row r="957">
-      <c r="B957" s="17"/>
-    </row>
-    <row r="958">
-      <c r="B958" s="17"/>
-    </row>
-    <row r="959">
-      <c r="B959" s="17"/>
-    </row>
-    <row r="960">
-      <c r="B960" s="17"/>
-    </row>
-    <row r="961">
-      <c r="B961" s="17"/>
-    </row>
-    <row r="962">
-      <c r="B962" s="17"/>
-    </row>
-    <row r="963">
-      <c r="B963" s="17"/>
-    </row>
-    <row r="964">
-      <c r="B964" s="17"/>
-    </row>
-    <row r="965">
-      <c r="B965" s="17"/>
-    </row>
-    <row r="966">
-      <c r="B966" s="17"/>
-    </row>
-    <row r="967">
-      <c r="B967" s="17"/>
-    </row>
-    <row r="968">
-      <c r="B968" s="17"/>
-    </row>
-    <row r="969">
-      <c r="B969" s="17"/>
-    </row>
-    <row r="970">
-      <c r="B970" s="17"/>
-    </row>
-    <row r="971">
-      <c r="B971" s="17"/>
-    </row>
-    <row r="972">
-      <c r="B972" s="17"/>
-    </row>
-    <row r="973">
-      <c r="B973" s="17"/>
-    </row>
-    <row r="974">
-      <c r="B974" s="17"/>
-    </row>
-    <row r="975">
-      <c r="B975" s="17"/>
-    </row>
-    <row r="976">
-      <c r="B976" s="17"/>
-    </row>
-    <row r="977">
-      <c r="B977" s="17"/>
-    </row>
-    <row r="978">
-      <c r="B978" s="17"/>
-    </row>
-    <row r="979">
-      <c r="B979" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2 B4 B19:B979">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
     <col customWidth="1" min="1" max="1" width="41.25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>341</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>342</v>
+        <v>429</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>343</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>344</v>
+        <v>431</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>347</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>348</v>
+        <v>435</v>
       </c>
       <c r="B6" s="34">
         <v>60.4</v>
@@ -12243,7 +9480,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>349</v>
+        <v>436</v>
       </c>
       <c r="B7" s="34">
         <v>39.6</v>
@@ -12251,23 +9488,23 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>350</v>
+        <v>437</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>352</v>
+        <v>439</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>354</v>
+        <v>441</v>
       </c>
       <c r="B10" s="34">
         <v>60.4</v>
@@ -12275,7 +9512,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
       <c r="B11" s="34">
         <v>39.6</v>
@@ -12283,26 +9520,26 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>356</v>
+        <v>443</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>359</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15">
@@ -12310,13 +9547,13 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="B16" s="35"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>361</v>
+        <v>448</v>
       </c>
       <c r="B17" s="34">
         <v>60.4</v>
@@ -12324,7 +9561,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>362</v>
+        <v>449</v>
       </c>
       <c r="B18" s="34">
         <v>39.6</v>
@@ -12332,23 +9569,23 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>363</v>
+        <v>450</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>364</v>
+        <v>451</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>365</v>
+        <v>452</v>
       </c>
       <c r="B21" s="34">
         <v>60.4</v>
@@ -12356,7 +9593,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>366</v>
+        <v>453</v>
       </c>
       <c r="B22" s="34">
         <v>39.6</v>
@@ -12364,18 +9601,18 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>368</v>
+        <v>455</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25">
@@ -15344,14 +12581,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -15359,447 +12598,511 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="6"/>
+        <v>148</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>189</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>204</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="E23" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="E24" s="7" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>213</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="E26" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="E27" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>219</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="E28" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E29" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="E30" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="E31" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="E32" s="7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="E33" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F33" s="13"/>
     </row>
     <row r="34">
       <c r="A34" s="15" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="E34" s="7" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="F34" s="13"/>
     </row>
@@ -19698,16 +17001,19 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>163</v>
+        <v>223</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -19715,10 +17021,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>165</v>
+        <v>226</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4">
@@ -19726,10 +17035,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>167</v>
+        <v>229</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
@@ -19737,423 +17049,483 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>232</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>235</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>238</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>241</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>250</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>251</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>253</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>256</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>259</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>262</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>265</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>268</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>271</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>274</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>280</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>283</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>204</v>
+        <v>285</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>286</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="E23" s="7" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>289</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="E24" s="7" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>292</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D26" s="6"/>
+        <v>295</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="E26" s="7" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>298</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="E27" s="7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="F27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="6"/>
+        <v>301</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="E28" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="F28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>303</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E29" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="F29" s="13"/>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="6"/>
+        <v>304</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="E30" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="F30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="6"/>
+        <v>305</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="E31" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="F31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="E32" s="7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="F32" s="13"/>
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="D33" s="6"/>
+        <v>307</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="E33" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F33" s="13"/>
     </row>
     <row r="34">
       <c r="A34" s="15" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D34" s="6"/>
+        <v>308</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="E34" s="7" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="F34" s="13"/>
     </row>
@@ -24056,10 +21428,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>222</v>
+        <v>309</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -24068,7 +21440,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
@@ -24077,169 +21449,169 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
-        <v>224</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>226</v>
+        <v>313</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>227</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>228</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>229</v>
+        <v>316</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>231</v>
+        <v>318</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
-        <v>233</v>
+        <v>320</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="11" t="s">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="11" t="s">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -27175,10 +24547,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -27187,7 +24559,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4">
@@ -27196,169 +24568,169 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
-        <v>241</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>245</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>246</v>
+        <v>333</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>247</v>
+        <v>334</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>248</v>
+        <v>335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>249</v>
+        <v>336</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="11" t="s">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="11" t="s">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -27376,7 +24748,7 @@
     <row r="23">
       <c r="B23" s="17"/>
       <c r="C23" s="7" t="s">
-        <v>251</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24">
@@ -30297,10 +27669,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>252</v>
+        <v>339</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -30309,7 +27681,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>253</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
@@ -30318,169 +27690,169 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
-        <v>254</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>257</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>259</v>
+        <v>346</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>263</v>
+        <v>350</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="16" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="11" t="s">
-        <v>266</v>
+        <v>353</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="22" t="s">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
-        <v>268</v>
+        <v>355</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -30492,7 +27864,7 @@
     <row r="21">
       <c r="B21" s="17"/>
       <c r="C21" s="7" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22">
@@ -33437,15 +30809,15 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
-        <v>271</v>
+        <v>358</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="22" t="s">
-        <v>272</v>
+        <v>359</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -33472,11 +30844,11 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -33505,11 +30877,11 @@
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="5" t="s">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -33538,15 +30910,15 @@
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>275</v>
+        <v>362</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
-        <v>276</v>
+        <v>363</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="22" t="s">
-        <v>277</v>
+        <v>364</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -33573,11 +30945,11 @@
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>275</v>
+        <v>362</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="22"/>
@@ -33606,11 +30978,11 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>275</v>
+        <v>362</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -33639,15 +31011,15 @@
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="5" t="s">
-        <v>281</v>
+        <v>368</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -33674,11 +31046,11 @@
     </row>
     <row r="9">
       <c r="A9" s="25" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="5" t="s">
-        <v>283</v>
+        <v>370</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="22"/>
@@ -33707,11 +31079,11 @@
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="5" t="s">
-        <v>284</v>
+        <v>371</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="22"/>
@@ -33740,15 +31112,15 @@
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="5" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="22" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -33775,11 +31147,11 @@
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="5" t="s">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="22"/>
@@ -33808,11 +31180,11 @@
     </row>
     <row r="13">
       <c r="A13" s="27" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="5" t="s">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="22"/>
@@ -33841,15 +31213,15 @@
     </row>
     <row r="14">
       <c r="A14" s="28" t="s">
-        <v>290</v>
+        <v>377</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="5" t="s">
-        <v>291</v>
+        <v>378</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="22" t="s">
-        <v>292</v>
+        <v>379</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -33876,11 +31248,11 @@
     </row>
     <row r="15">
       <c r="A15" s="28" t="s">
-        <v>290</v>
+        <v>377</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="5" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="22"/>
@@ -33909,11 +31281,11 @@
     </row>
     <row r="16">
       <c r="A16" s="28" t="s">
-        <v>290</v>
+        <v>377</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="5" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="22"/>
@@ -61850,11 +59222,11 @@
         <v>5</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>295</v>
+        <v>382</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -61862,7 +59234,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>296</v>
+        <v>383</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -61871,170 +59243,170 @@
         <v>5</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>298</v>
+        <v>385</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>308</v>
+        <v>395</v>
       </c>
       <c r="C15" s="22"/>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="C16" s="22"/>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
       <c r="C17" s="22"/>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>311</v>
+        <v>398</v>
       </c>
       <c r="C18" s="22"/>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
@@ -64969,11 +62341,11 @@
         <v>5</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -64981,7 +62353,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>313</v>
+        <v>400</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -64990,170 +62362,170 @@
         <v>5</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>314</v>
+        <v>401</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>316</v>
+        <v>403</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>321</v>
+        <v>408</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="C15" s="22"/>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>324</v>
+        <v>411</v>
       </c>
       <c r="C16" s="22"/>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
       <c r="C17" s="22"/>
       <c r="E17" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>311</v>
+        <v>398</v>
       </c>
       <c r="C18" s="22"/>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">

--- a/Data/Textbausteine_LENA_Mai2022.xlsx
+++ b/Data/Textbausteine_LENA_Mai2022.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="453">
   <si>
     <t>Text_ID</t>
   </si>
@@ -684,9 +684,6 @@
   </si>
   <si>
     <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori alla legge sui trapianti. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat den höheren Frontex-Beitrag mit #JaStimmenInProzent Prozent Ja-Stimmen angenommen.</t>
@@ -6331,7 +6328,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -6343,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -6352,7 +6349,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -6361,7 +6358,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -6373,7 +6370,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -6385,7 +6382,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -6394,7 +6391,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -6403,7 +6400,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -6415,7 +6412,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -6427,7 +6424,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -6439,7 +6436,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -6451,7 +6448,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="7" t="s">
@@ -6463,7 +6460,7 @@
         <v>116</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="7" t="s">
@@ -6475,7 +6472,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C15" s="22"/>
       <c r="E15" s="7" t="s">
@@ -6487,7 +6484,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C16" s="22"/>
       <c r="E16" s="7" t="s">
@@ -6499,7 +6496,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C17" s="22"/>
       <c r="E17" s="7" t="s">
@@ -6511,7 +6508,7 @@
         <v>136</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C18" s="22"/>
       <c r="E18" s="7" t="s">
@@ -9426,47 +9423,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>423</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>425</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>427</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>429</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>431</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" s="34">
         <v>60.4</v>
@@ -9474,7 +9471,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B7" s="34">
         <v>39.6</v>
@@ -9482,23 +9479,23 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>435</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>437</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B10" s="34">
         <v>60.4</v>
@@ -9506,7 +9503,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B11" s="34">
         <v>39.6</v>
@@ -9514,26 +9511,26 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>443</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="15">
@@ -9541,13 +9538,13 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B16" s="35"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B17" s="34">
         <v>60.4</v>
@@ -9555,7 +9552,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B18" s="34">
         <v>39.6</v>
@@ -9563,23 +9560,23 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B21" s="34">
         <v>60.4</v>
@@ -9587,7 +9584,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B22" s="34">
         <v>39.6</v>
@@ -9595,18 +9592,18 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25">
@@ -16995,16 +16992,16 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -17015,13 +17012,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4">
@@ -17029,13 +17026,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5">
@@ -17043,13 +17040,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="6">
@@ -17057,13 +17054,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -17071,13 +17068,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="8">
@@ -17085,13 +17082,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="9">
@@ -17099,13 +17096,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -17116,13 +17113,13 @@
         <v>28</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="11">
@@ -17130,13 +17127,13 @@
         <v>36</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -17147,13 +17144,13 @@
         <v>36</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="13">
@@ -17161,13 +17158,13 @@
         <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="14">
@@ -17175,13 +17172,13 @@
         <v>36</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15">
@@ -17189,13 +17186,13 @@
         <v>36</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="16">
@@ -17203,13 +17200,13 @@
         <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -17218,13 +17215,13 @@
         <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="18">
@@ -17232,13 +17229,13 @@
         <v>59</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>32</v>
@@ -17249,13 +17246,13 @@
         <v>59</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="20">
@@ -17263,13 +17260,13 @@
         <v>66</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>70</v>
@@ -17280,13 +17277,13 @@
         <v>71</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>75</v>
@@ -17297,13 +17294,13 @@
         <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>80</v>
@@ -17314,13 +17311,13 @@
         <v>81</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>287</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>85</v>
@@ -17331,13 +17328,13 @@
         <v>86</v>
       </c>
       <c r="B24" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>90</v>
@@ -17348,13 +17345,13 @@
         <v>91</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>95</v>
@@ -17366,13 +17363,13 @@
         <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>296</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>100</v>
@@ -17384,13 +17381,13 @@
         <v>101</v>
       </c>
       <c r="B27" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>105</v>
@@ -17402,13 +17399,13 @@
         <v>106</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>110</v>
@@ -17423,7 +17420,7 @@
         <v>112</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>114</v>
@@ -17441,7 +17438,7 @@
         <v>117</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>119</v>
@@ -17459,7 +17456,7 @@
         <v>122</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>124</v>
@@ -17477,7 +17474,7 @@
         <v>127</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>129</v>
@@ -17495,7 +17492,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>134</v>
@@ -17513,7 +17510,7 @@
         <v>137</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>139</v>
@@ -21422,7 +21419,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -21434,7 +21431,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
@@ -21443,7 +21440,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
@@ -21452,7 +21449,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -21464,7 +21461,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>40</v>
@@ -21476,7 +21473,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8">
@@ -21485,7 +21482,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9">
@@ -21494,7 +21491,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -21506,7 +21503,7 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -21518,7 +21515,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>75</v>
@@ -21530,7 +21527,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -21542,7 +21539,7 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>115</v>
@@ -21554,7 +21551,7 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>120</v>
@@ -21566,7 +21563,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>125</v>
@@ -21578,7 +21575,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>130</v>
@@ -21590,7 +21587,7 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>135</v>
@@ -21602,7 +21599,7 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>140</v>
@@ -24541,7 +24538,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -24553,7 +24550,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4">
@@ -24562,7 +24559,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
@@ -24571,7 +24568,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -24583,7 +24580,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>40</v>
@@ -24595,7 +24592,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8">
@@ -24604,7 +24601,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9">
@@ -24613,7 +24610,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -24625,7 +24622,7 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -24637,7 +24634,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>75</v>
@@ -24649,7 +24646,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -24661,7 +24658,7 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>115</v>
@@ -24673,7 +24670,7 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>120</v>
@@ -24685,7 +24682,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>125</v>
@@ -24697,7 +24694,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>130</v>
@@ -24709,7 +24706,7 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>135</v>
@@ -24721,7 +24718,7 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>140</v>
@@ -27660,7 +27657,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -27672,7 +27669,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
@@ -27681,7 +27678,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
@@ -27690,7 +27687,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -27702,7 +27699,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>40</v>
@@ -27714,7 +27711,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8">
@@ -27723,7 +27720,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9">
@@ -27732,7 +27729,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -27744,7 +27741,7 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -27756,7 +27753,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>75</v>
@@ -27768,7 +27765,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -27780,7 +27777,7 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>115</v>
@@ -27792,7 +27789,7 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>120</v>
@@ -27804,7 +27801,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>125</v>
@@ -27816,7 +27813,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>130</v>
@@ -27828,7 +27825,7 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>135</v>
@@ -27840,7 +27837,7 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>140</v>
@@ -30797,15 +30794,15 @@
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
@@ -30832,11 +30829,11 @@
     </row>
     <row r="3">
       <c r="A3" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -30865,11 +30862,11 @@
     </row>
     <row r="4">
       <c r="A4" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -30898,15 +30895,15 @@
     </row>
     <row r="5">
       <c r="A5" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -30933,11 +30930,11 @@
     </row>
     <row r="6">
       <c r="A6" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="22"/>
@@ -30966,11 +30963,11 @@
     </row>
     <row r="7">
       <c r="A7" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -30999,15 +30996,15 @@
     </row>
     <row r="8">
       <c r="A8" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -31034,11 +31031,11 @@
     </row>
     <row r="9">
       <c r="A9" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="22"/>
@@ -31067,11 +31064,11 @@
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="22"/>
@@ -31100,15 +31097,15 @@
     </row>
     <row r="11">
       <c r="A11" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -31135,11 +31132,11 @@
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="22"/>
@@ -31168,11 +31165,11 @@
     </row>
     <row r="13">
       <c r="A13" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="22"/>
@@ -31201,15 +31198,15 @@
     </row>
     <row r="14">
       <c r="A14" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -31236,11 +31233,11 @@
     </row>
     <row r="15">
       <c r="A15" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="22"/>
@@ -31269,11 +31266,11 @@
     </row>
     <row r="16">
       <c r="A16" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="22"/>
@@ -59210,7 +59207,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -59222,7 +59219,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -59231,7 +59228,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -59240,7 +59237,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -59252,7 +59249,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -59264,7 +59261,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -59273,7 +59270,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -59282,7 +59279,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -59294,7 +59291,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -59306,7 +59303,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -59318,7 +59315,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -59330,7 +59327,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="7" t="s">
@@ -59342,7 +59339,7 @@
         <v>116</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="7" t="s">
@@ -59354,7 +59351,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C15" s="22"/>
       <c r="E15" s="7" t="s">
@@ -59366,7 +59363,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C16" s="22"/>
       <c r="E16" s="7" t="s">
@@ -59378,7 +59375,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C17" s="22"/>
       <c r="E17" s="7" t="s">
@@ -59390,7 +59387,7 @@
         <v>136</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C18" s="22"/>
       <c r="E18" s="7" t="s">
@@ -62329,7 +62326,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -62341,7 +62338,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -62350,7 +62347,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -62359,7 +62356,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
@@ -62371,7 +62368,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
@@ -62383,7 +62380,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -62392,7 +62389,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -62401,7 +62398,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
@@ -62413,7 +62410,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
@@ -62425,7 +62422,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
@@ -62437,7 +62434,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
@@ -62449,7 +62446,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="7" t="s">
@@ -62461,7 +62458,7 @@
         <v>116</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="7" t="s">
@@ -62473,7 +62470,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C15" s="22"/>
       <c r="E15" s="7" t="s">
@@ -62485,7 +62482,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C16" s="22"/>
       <c r="E16" s="7" t="s">
@@ -62497,7 +62494,7 @@
         <v>131</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C17" s="22"/>
       <c r="E17" s="7" t="s">
@@ -62509,7 +62506,7 @@
         <v>136</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C18" s="22"/>
       <c r="E18" s="7" t="s">

--- a/Data/Textbausteine_LENA_Mai2022.xlsx
+++ b/Data/Textbausteine_LENA_Mai2022.xlsx
@@ -13,7 +13,8 @@
     <sheet state="visible" name="ZH_Wahlrecht16" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="ZH_Elternzeit" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="ZH_Klimaschutz" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Variablen" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="ZH_Buergerrecht" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Variablen" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="453">
   <si>
     <t>Text_ID</t>
   </si>
@@ -1640,6 +1641,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -9418,6 +9423,3091 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="36.63"/>
+    <col customWidth="1" min="2" max="2" width="44.88"/>
+    <col customWidth="1" min="3" max="3" width="44.5"/>
+    <col customWidth="1" min="4" max="4" width="34.13"/>
+    <col customWidth="1" min="5" max="5" width="61.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="E6" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="E11" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="22"/>
+      <c r="E15" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="22"/>
+      <c r="E16" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="22"/>
+      <c r="E17" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="22"/>
+      <c r="E18" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="17"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="17"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="17"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="17"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="17"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="17"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="17"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="17"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="17"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="17"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="17"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="17"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="17"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="17"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="17"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="17"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="17"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="17"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="17"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="17"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="17"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="17"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="17"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="17"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="17"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="17"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="17"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="17"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="17"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="17"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="17"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="17"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="17"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="17"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="17"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="17"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="17"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="17"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="17"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="17"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="17"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="17"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="17"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="17"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="17"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="17"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="17"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="17"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="17"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="17"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="17"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="17"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="17"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="17"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="17"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="17"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="17"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="17"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="17"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="17"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="17"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="17"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="17"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="17"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="17"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="17"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="17"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="17"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="17"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="17"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="17"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="17"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="17"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="17"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="17"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="17"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="17"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="17"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="17"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="17"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="17"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="17"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="17"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="17"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="17"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="17"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="17"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="17"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="17"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="17"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="17"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="17"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="17"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="17"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="17"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="17"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="17"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="17"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="17"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="17"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="17"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="17"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="17"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="17"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="17"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="17"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="17"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="17"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="17"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="17"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="17"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="17"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="17"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="17"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="17"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="17"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="17"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="17"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="17"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="17"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="17"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="17"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="17"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="17"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="17"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="17"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="17"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="17"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="17"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="17"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="17"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="17"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="17"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="17"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="17"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="17"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="17"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="17"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="17"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="17"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="17"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="17"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="17"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="17"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="17"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="17"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="17"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="17"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="17"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="17"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="17"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="17"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="17"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="17"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="17"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="17"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="17"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="17"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="17"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="17"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="17"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="17"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="17"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="17"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="17"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="17"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="17"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="17"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="17"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="17"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="17"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="17"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="17"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="17"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="17"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="17"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="17"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="17"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="17"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="17"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="17"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="17"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="17"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="17"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="17"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="17"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="17"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="17"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="17"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="17"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="17"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="17"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="17"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="17"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="17"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="17"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="17"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="17"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="17"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="17"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="17"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="17"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="17"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="17"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="17"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="17"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="17"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="17"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="17"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="17"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="17"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="17"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="17"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="17"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="17"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="17"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="17"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="17"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="17"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="17"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="17"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="17"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="17"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="17"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="17"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="17"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="17"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="17"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="17"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="17"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="17"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="17"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="17"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="17"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="17"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="17"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="17"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="17"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="17"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="17"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="17"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="17"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="17"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="17"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="17"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="17"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="17"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="17"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="17"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="17"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="17"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="17"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="17"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="17"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="17"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="17"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="17"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="17"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="17"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="17"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="17"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="17"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="17"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="17"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="17"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="17"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="17"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="17"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="17"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="17"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="17"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="17"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="17"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="17"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="17"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="17"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="17"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="17"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="17"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="17"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="17"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="17"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="17"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="17"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="17"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="17"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="17"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="17"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="17"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="17"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="17"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="17"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="17"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="17"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="17"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="17"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="17"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="17"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="17"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="17"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="17"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="17"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="17"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="17"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="17"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="17"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="17"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="17"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="17"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="17"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="17"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="17"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="17"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="17"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="17"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="17"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="17"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="17"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="17"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="17"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="17"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="17"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="17"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="17"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="17"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="17"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="17"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="17"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="17"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="17"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="17"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="17"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="17"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="17"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="17"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="17"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="17"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="17"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="17"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="17"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="17"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="17"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="17"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="17"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="17"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="17"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="17"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="17"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="17"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="17"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="17"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="17"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="17"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="17"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="17"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="17"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="17"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="17"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="17"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="17"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="17"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="17"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="17"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="17"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="17"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="17"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="17"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="17"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="17"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="17"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="17"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="17"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="17"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="17"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="17"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="17"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="17"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="17"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="17"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="17"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="17"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="17"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="17"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="17"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="17"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="17"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="17"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="17"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="17"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="17"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="17"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="17"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="17"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="17"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="17"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="17"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="17"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="17"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="17"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="17"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="17"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="17"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="17"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="17"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="17"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="17"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="17"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="17"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="17"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="17"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="17"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="17"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="17"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="17"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="17"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="17"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="17"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="17"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="17"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="17"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="17"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="17"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="17"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="17"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="17"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="17"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="17"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="17"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="17"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="17"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="17"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="17"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="17"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="17"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="17"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="17"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="17"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="17"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="17"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="17"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="17"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="17"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="17"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="17"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="17"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="17"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="17"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="17"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="17"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="17"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="17"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="17"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="17"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="17"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="17"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="17"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="17"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="17"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="17"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="17"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="17"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="17"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="17"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="17"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="17"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="17"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="17"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="17"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="17"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="17"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="17"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="17"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="17"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="17"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="17"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="17"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="17"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="17"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="17"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="17"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="17"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="17"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="17"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="17"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="17"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="17"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="17"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="17"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="17"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="17"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="17"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="17"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="17"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="17"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="17"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="17"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="17"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="17"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="17"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="17"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="17"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="17"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="17"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="17"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="17"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="17"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="17"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="17"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="17"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="17"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="17"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="17"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="17"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="17"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="17"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="17"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="17"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="17"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="17"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="17"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="17"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="17"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="17"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="17"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="17"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="17"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="17"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="17"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="17"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="17"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="17"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="17"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="17"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="17"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="17"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="17"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="17"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="17"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="17"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="17"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="17"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="17"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="17"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="17"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="17"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="17"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="17"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="17"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="17"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="17"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="17"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="17"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="17"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="17"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="17"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="17"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="17"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="17"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="17"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="17"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="17"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="17"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="17"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="17"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="17"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="17"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="17"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="17"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="17"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="17"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="17"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="17"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="17"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="17"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="17"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="17"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="17"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="17"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="17"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="17"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="17"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="17"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="17"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="17"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="17"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="17"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="17"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="17"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="17"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="17"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="17"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="17"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="17"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="17"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="17"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="17"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="17"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="17"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="17"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="17"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="17"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="17"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="17"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="17"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="17"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="17"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="17"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="17"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="17"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="17"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="17"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="17"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="17"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="17"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="17"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="17"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="17"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="17"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="17"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="17"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="17"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="17"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="17"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="17"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="17"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="17"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="17"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="17"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="17"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="17"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="17"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="17"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="17"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="17"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="17"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="17"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="17"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="17"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="17"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="17"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="17"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="17"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="17"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="17"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="17"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="17"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="17"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="17"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="17"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="17"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="17"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="17"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="17"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="17"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="17"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="17"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="17"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="17"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="17"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="17"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="17"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="17"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="17"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="17"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="17"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="17"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="17"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="17"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="17"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="17"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="17"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="17"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="17"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="17"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="17"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="17"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="17"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="17"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="17"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="17"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="17"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="17"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="17"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="17"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="17"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="17"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="17"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="17"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="17"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="17"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="17"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="17"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="17"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="17"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="17"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="17"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="17"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="17"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="17"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="17"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="17"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="17"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="17"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="17"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="17"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="17"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="17"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="17"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="17"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="17"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="17"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="17"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="17"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="17"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="17"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="17"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="17"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="17"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="17"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="17"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="17"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="17"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="17"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="17"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="17"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="17"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="17"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="17"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="17"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="17"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="17"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="17"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="17"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="17"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="17"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="17"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="17"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="17"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="17"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="17"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="17"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="17"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="17"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="17"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="17"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="17"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="17"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="17"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="17"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="17"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="17"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="17"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="17"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="17"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="17"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="17"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="17"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="17"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="17"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="17"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="17"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="17"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="17"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="17"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="17"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="17"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="17"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="17"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="17"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="17"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="17"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="17"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="17"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="17"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="17"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="17"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="17"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="17"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="17"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="17"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="17"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="17"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="17"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="17"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="17"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="17"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="17"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="17"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="17"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="17"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="17"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="17"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="17"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="17"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="17"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="17"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="17"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="17"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="17"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="17"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="17"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="17"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="17"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="17"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="17"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="17"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="17"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="17"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="17"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="17"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="17"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="17"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="17"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="17"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="17"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="17"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="17"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="17"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="17"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="17"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="17"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="17"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="17"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="17"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="17"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="17"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="17"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="17"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="17"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="17"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="17"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="17"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="17"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="17"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="17"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="17"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="17"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="17"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="17"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="17"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="17"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="17"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="17"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="17"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="17"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="17"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="17"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="17"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="17"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="17"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="17"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="17"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="17"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="17"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="17"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="17"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="17"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="17"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="17"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="17"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="17"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="17"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="17"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="17"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="17"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="17"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="17"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="17"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="17"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="17"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="17"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="17"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="17"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="17"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="17"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="17"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="17"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="17"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="17"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="17"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="17"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="17"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="17"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="17"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="17"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="17"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="17"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="17"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="17"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="17"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="17"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="17"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="17"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="17"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="17"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="17"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="17"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="17"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="17"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="17"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="17"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="17"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="17"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="17"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="17"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="17"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="17"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="17"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="17"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="17"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="17"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="17"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="17"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="17"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="17"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="17"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="17"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="17"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="17"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="17"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="17"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="17"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="17"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="17"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="17"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="17"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="17"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="17"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="17"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="17"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="17"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2 B4 B19:B979">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="41.25"/>
   </cols>
   <sheetData>

--- a/Data/Textbausteine_LENA_Mai2022.xlsx
+++ b/Data/Textbausteine_LENA_Mai2022.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="464">
   <si>
     <t>Text_ID</t>
   </si>
@@ -1290,6 +1290,39 @@
     <t>#Gemeinde_d hat damit anders abgestimmt als der gesamte Kanton Zürich, der die Vorlage angenommen hat.</t>
   </si>
   <si>
+    <t>#Gemeinde_d hat die Änderung des kantonalen Bürgerrechtsgesetzes mit #JaStimmenInProzent Prozent angenommen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit #JaStimmenInProzent Prozent Ja hat sich #Gemeinde_d für die Änderung des kantonalen Bürgerrechtsgesetzes ausgesprochen. </t>
+  </si>
+  <si>
+    <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger von #Gemeinde_d haben der Änderung des kantonalen Bürgerrechtsgesetzes zugestimmt.</t>
+  </si>
+  <si>
+    <t>Die Änderung des kantonalen Bürgerrechtsgesetzes ist in #Gemeinde_d angenommen worden: #JaStimmenAbsolut Stimmberechtigte stimmten dafür, #NeinStimmenAbsolut lehnten sie ab.</t>
+  </si>
+  <si>
+    <t>#Gemeinde_d hat die Änderung des kantonalen Bürgerrechtsgesetzes mit #NeinStimmenInProzent Prozent abgelehnt.</t>
+  </si>
+  <si>
+    <t>Nein zur Änderung des kantonalen Bürgerrechtsgesetzes in #Gemeinde_d: #NeinStimmenInProzent Prozent haben die Vorlage abgelehnt.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für die Änderung des kantonalen Bürgerrechtsgesetzes in #Gemeinde_d. #NeinStimmenInProzent Prozent haben die Vorlage verworfen.</t>
+  </si>
+  <si>
+    <t>Die Änderung des kantonalen Bürgerrechtsgesetzes ist in #Gemeinde_d mit #NeinStimmenAbsolut zu #JaStimmenAbsolut Stimmen abgelehnt worden.</t>
+  </si>
+  <si>
+    <t>Unentschieden in #Gemeinde_d bei der Abstimmung über die Änderung des kantonalen Bürgerrechtsgesetzes: Mit je #JaStimmenAbsolut Stimmen halten sich die Befürworter und Gegner genau die Waage.</t>
+  </si>
+  <si>
+    <t>Deutlicher geht es nicht: In #Gemeinde_d haben alle #JaStimmenAbsolut Abstimmenden den Änderung des kantonalen Bürgerrechtsgesetzes zugestimmt.</t>
+  </si>
+  <si>
+    <t>Klarer geht es nicht: In #Gemeinde_d haben alle #NeinStimmenAbsolut Abstimmenden die Änderung des kantonalen Bürgerrechtsgesetzes abgelehnt.</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -9451,7 +9484,9 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>422</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
         <v>9</v>
@@ -9461,21 +9496,27 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="E5" s="7" t="s">
         <v>32</v>
@@ -9485,7 +9526,9 @@
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="E6" s="7" t="s">
         <v>40</v>
@@ -9495,21 +9538,27 @@
       <c r="A7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>427</v>
+      </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -9519,7 +9568,9 @@
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="21" t="s">
+        <v>430</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="E10" s="7" t="s">
         <v>70</v>
@@ -9529,7 +9580,9 @@
       <c r="A11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="E11" s="7" t="s">
         <v>75</v>
@@ -9539,7 +9592,9 @@
       <c r="A12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>432</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -9549,7 +9604,9 @@
       <c r="A13" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>390</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="E13" s="7" t="s">
         <v>115</v>
@@ -9559,7 +9616,9 @@
       <c r="A14" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>391</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="E14" s="7" t="s">
         <v>120</v>
@@ -9569,7 +9628,9 @@
       <c r="A15" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>420</v>
+      </c>
       <c r="C15" s="22"/>
       <c r="E15" s="7" t="s">
         <v>125</v>
@@ -9579,7 +9640,9 @@
       <c r="A16" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>421</v>
+      </c>
       <c r="C16" s="22"/>
       <c r="E16" s="7" t="s">
         <v>130</v>
@@ -9589,7 +9652,9 @@
       <c r="A17" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>394</v>
+      </c>
       <c r="C17" s="22"/>
       <c r="E17" s="7" t="s">
         <v>135</v>
@@ -9599,7 +9664,9 @@
       <c r="A18" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>395</v>
+      </c>
       <c r="C18" s="22"/>
       <c r="E18" s="7" t="s">
         <v>140</v>
@@ -12513,47 +12580,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="32" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="B6" s="34">
         <v>60.4</v>
@@ -12561,7 +12628,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B7" s="34">
         <v>39.6</v>
@@ -12569,23 +12636,23 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="B10" s="34">
         <v>60.4</v>
@@ -12593,7 +12660,7 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B11" s="34">
         <v>39.6</v>
@@ -12601,26 +12668,26 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15">
@@ -12628,13 +12695,13 @@
     </row>
     <row r="16">
       <c r="A16" s="36" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B16" s="35"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="B17" s="34">
         <v>60.4</v>
@@ -12642,7 +12709,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B18" s="34">
         <v>39.6</v>
@@ -12650,23 +12717,23 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>448</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="B21" s="34">
         <v>60.4</v>
@@ -12674,7 +12741,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="B22" s="34">
         <v>39.6</v>
@@ -12682,18 +12749,18 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25">

--- a/Data/Textbausteine_LENA_Mai2022.xlsx
+++ b/Data/Textbausteine_LENA_Mai2022.xlsx
@@ -291,7 +291,7 @@
     <t xml:space="preserve">#Gemeinde_f se classe au deuxième rang des plus fortes approbations de Suisse pour la modification de la loi sur le cinéma: #JaStimmenInProzent pour cent ont dit oui à la "Lex Netflix". </t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli alla legge sul cinema. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli alla legge sul cinema. I suoi cittadini hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Gemeinde mit dem zweithöchsten Ja-Anteil</t>
@@ -306,7 +306,7 @@
     <t>#Gemeinde_f prend le troisième rang des plus forts soutiens à la nouvelle loi sur le cinéma. Ses citoyens disent oui à #JaStimmenInProzent pour cent à la modification soutenue par le gouvernement et les Chambres fédérales.</t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli alla legge sul cinema. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli alla legge sul cinema. I suoi cittadini hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Gemeinde mit dem dritthöchsten Ja-Anteil</t>
@@ -336,7 +336,7 @@
     <t xml:space="preserve">#Gemeinde_f se classe au deuxième rang des plus forts rejets de Suisse pour la modification de la loi sur le cinéma. Ses citoyens disent non à #NeinStimmenInProzent pour cent. </t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori alla legge sul cinema. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori alla legge sul cinema. I suoi cittadini hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Gemeinde mit dem zweithöchsten Nein-Anteil</t>
@@ -351,7 +351,7 @@
     <t xml:space="preserve">#Gemeinde_f se classe au troisième rang des communes les plus hostiles à la nouvelle loi sur le cinéma. Ses citoyens disent non à cette modification à #NeinStimmenInProzent pour cent. </t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori alla legge sul cinema. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori alla legge sul cinema. I suoi cittadini hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Gemeinde mit dem dritthöchsten Nein-Anteil</t>
@@ -648,7 +648,7 @@
     <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations de la nouvelle loi sur la transplantation d'organes. Ses habitants disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli allalegge sui trapianti. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli allalegge sui trapianti. I suoi cittadini hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat schweizweit den dritthöchsten Ja-Anteil bei der Abstimmung über die Änderung des Transplantationsgesetzes: #JaStimmenInProzent Prozent haben der Vorlage zugestimmt.</t>
@@ -657,7 +657,7 @@
     <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations de la nouvelle loi sur la transplantation d'organes. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli alla legge sui trapianti. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli alla legge sui trapianti. I suoi cittadini hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen die Änderung des Transplantationsgesetzes ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
@@ -675,7 +675,7 @@
     <t>#Gemeinde_f se classe au deuxième rang des plus forts refus de la loi sur la transplantation d'organes. Elle dit non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori alla legge sui trapianti. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori alla legge sui trapianti. I suoi cittadini hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>#Gemeinde_d hat schweizweit den dritthöchsten Nein-Anteil bei der Abstimmung über die Änderung des Transplantationsgesetzes: #NeinStimmenInProzent Prozent haben es verworfen.</t>
@@ -684,7 +684,7 @@
     <t>#Gemeinde_f se classe au troisième rang des plus forts refus de la loi sur la transplantation d'organes. Le rejet atteint #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori alla legge sui trapianti. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori alla legge sui trapianti. I suoi cittadini hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat den höheren Frontex-Beitrag mit #JaStimmenInProzent Prozent Ja-Stimmen angenommen.</t>
@@ -891,7 +891,7 @@
     <t>#Gemeinde_f se classe au deuxième rang des plus fortes approbations du renforcement de la participation de la Suisse à Frontex. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli alla maggiore partecipazione a Frontex. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori favorevoli alla maggiore partecipazione a Frontex. I suoi cittadini hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat den höheren Frontex-Beitrag mit dem dritthöchsten Ja-Anteil in der ganzen Schweiz angenommen: #JaStimmenInProzent Prozent stimmten für die Vorlage.</t>
@@ -900,7 +900,7 @@
     <t>#Gemeinde_f se classe au troisième rang des plus fortes approbations du renforcement de la participation de la Suisse à Frontex. Ses citoyens disent oui à #JaStimmenInProzent pour cent.</t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli alla maggiore partecipazione a Frontex. I suoi cittadini hanno detto "sì" con il #JaStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori favorevoli alla maggiore partecipazione a Frontex. I suoi cittadini hanno detto "sì" con il #JaStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Keine Schweizer Gemeinde hat sich deutlicher gegen einen höheren Frontex-Beitrag ausgesprochen als #Gemeinde_d mit einem Nein-Stimmen-Anteil von #NeinStimmenInProzent Prozent.</t>
@@ -918,7 +918,7 @@
     <t>#Gemeinde_f se classe au deuxième rang des plus forts refus du renforcement de la participation de la Suisse à Frontex. Ses citoyens disent non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori alla maggiore partecipazione a Frontex. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al secondo posto fra i maggiori oppositori alla maggiore partecipazione a Frontex. I suoi cittadini hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Die Gemeinde #Gemeinde_d hat den höheren Frontex-Beitrag mit dem dritthöchsten Nein-Anteil in der ganzen Schweiz abgelehnt: #NeinStimmenInProzent Prozent legten ein Nein in die Urne.</t>
@@ -927,7 +927,7 @@
     <t>#Gemeinde_f se classe au troisième rang des plus forts refus du renforcement de la participation de la Suisse à Frontex.Ses citoyens disent non à #NeinStimmenInProzent pour cent.</t>
   </si>
   <si>
-    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori ala maggiore partecipazione a Frontex. I suoi cittadini hanno detto "no" con il #NeinStimmentInProzent percento dei voti.</t>
+    <t>#Gemeinde_i si piazza al terzo posto fra i maggiori oppositori ala maggiore partecipazione a Frontex. I suoi cittadini hanno detto "no" con il #NeinStimmenInProzent percento dei voti.</t>
   </si>
   <si>
     <t>Le plus fort pourcentage de oui du canton de #Kanton_f a été obtenu à #Gemeinde_f.</t>
